--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_23_11.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_23_11.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1299331.628795162</v>
+        <v>-1301904.374740026</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673432</v>
+        <v>603248.4937673436</v>
       </c>
     </row>
     <row r="9">
@@ -1367,22 +1367,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>341.1569118905546</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>313.106111847757</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>365.2991159687855</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>262.9082487222583</v>
+        <v>370.2816430040587</v>
       </c>
       <c r="H11" t="n">
         <v>262.6253202182579</v>
@@ -1418,25 +1418,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>88.95923584271586</v>
+        <v>88.95923584271587</v>
       </c>
       <c r="T11" t="n">
-        <v>166.4420886499518</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>209.4931899558585</v>
       </c>
       <c r="V11" t="n">
         <v>286.175328697209</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>259.4322584014596</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>328.1541709055431</v>
       </c>
       <c r="Y11" t="n">
-        <v>344.6610088831276</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1461,7 +1461,7 @@
         <v>103.4922826204579</v>
       </c>
       <c r="G12" t="n">
-        <v>93.92379679477334</v>
+        <v>93.92379679477335</v>
       </c>
       <c r="H12" t="n">
         <v>52.86103687007933</v>
@@ -1512,7 +1512,7 @@
         <v>210.1180533879937</v>
       </c>
       <c r="X12" t="n">
-        <v>164.1960554305515</v>
+        <v>164.1960554305516</v>
       </c>
       <c r="Y12" t="n">
         <v>164.1057660043784</v>
@@ -1531,16 +1531,16 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>107.0385432452864</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>104.8570328736432</v>
       </c>
       <c r="F13" t="n">
-        <v>103.8441182500053</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>124.8691158536043</v>
+        <v>120.1530426118619</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.25062307589235</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>155.5156867721641</v>
@@ -1585,13 +1585,13 @@
         <v>244.6578304709143</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>210.5607135509021</v>
       </c>
       <c r="W13" t="n">
         <v>244.9460685636651</v>
       </c>
       <c r="X13" t="n">
-        <v>112.8440813540871</v>
+        <v>184.1327256161112</v>
       </c>
       <c r="Y13" t="n">
         <v>177.0077235791688</v>
@@ -1607,22 +1607,22 @@
         <v>341.1569118905546</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>323.6959619980816</v>
       </c>
       <c r="D14" t="n">
-        <v>171.9346741029774</v>
+        <v>313.106111847757</v>
       </c>
       <c r="E14" t="n">
-        <v>340.3534402993358</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>365.2991159687855</v>
       </c>
       <c r="G14" t="n">
-        <v>369.3447958805275</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>253.0308346143945</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1658,7 +1658,7 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>162.3410403666942</v>
+        <v>154.1410421893015</v>
       </c>
       <c r="U14" t="n">
         <v>209.418242185976</v>
@@ -1704,7 +1704,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I15" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824772</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,7 +1731,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S15" t="n">
         <v>128.1435076414547</v>
@@ -1774,13 +1774,13 @@
         <v>104.8570328736432</v>
       </c>
       <c r="F16" t="n">
-        <v>103.8441182500053</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>124.4488784861023</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>103.1780851413948</v>
       </c>
       <c r="I16" t="n">
         <v>54.77549063691215</v>
@@ -1813,10 +1813,10 @@
         <v>47.35522289712138</v>
       </c>
       <c r="S16" t="n">
-        <v>122.6726109337423</v>
+        <v>148.1920955585159</v>
       </c>
       <c r="T16" t="n">
-        <v>177.9720195032432</v>
+        <v>153.1185679870802</v>
       </c>
       <c r="U16" t="n">
         <v>244.6349084326869</v>
@@ -1841,25 +1841,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>285.0491214353756</v>
+        <v>285.0491214353757</v>
       </c>
       <c r="C17" t="n">
-        <v>267.5881715429026</v>
+        <v>267.5881715429027</v>
       </c>
       <c r="D17" t="n">
-        <v>256.998321392578</v>
+        <v>256.9983213925781</v>
       </c>
       <c r="E17" t="n">
-        <v>284.2456498441568</v>
+        <v>284.2456498441569</v>
       </c>
       <c r="F17" t="n">
-        <v>309.1913255136065</v>
+        <v>309.1913255136066</v>
       </c>
       <c r="G17" t="n">
-        <v>313.2370054253485</v>
+        <v>313.2370054253486</v>
       </c>
       <c r="H17" t="n">
-        <v>196.9230441592155</v>
+        <v>196.9230441592156</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1892,10 +1892,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>11.50304156007091</v>
+        <v>11.50304156007094</v>
       </c>
       <c r="T17" t="n">
-        <v>106.2332499115152</v>
+        <v>106.2332499115153</v>
       </c>
       <c r="U17" t="n">
         <v>153.3104517307971</v>
@@ -1907,7 +1907,7 @@
         <v>251.5562484893081</v>
       </c>
       <c r="X17" t="n">
-        <v>272.0463804503641</v>
+        <v>272.0463804503642</v>
       </c>
       <c r="Y17" t="n">
         <v>288.5532184279487</v>
@@ -1941,7 +1941,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I18" t="n">
-        <v>18.8172186824772</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1999,25 +1999,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>82.14725995383237</v>
+        <v>82.1472599538324</v>
       </c>
       <c r="C19" t="n">
-        <v>69.56210087052291</v>
+        <v>69.56210087052294</v>
       </c>
       <c r="D19" t="n">
-        <v>50.93075279010743</v>
+        <v>50.93075279010746</v>
       </c>
       <c r="E19" t="n">
-        <v>48.74924241846425</v>
+        <v>48.74924241846428</v>
       </c>
       <c r="F19" t="n">
-        <v>47.73632779482632</v>
+        <v>47.73632779482635</v>
       </c>
       <c r="G19" t="n">
-        <v>68.3410880309233</v>
+        <v>68.34108803092333</v>
       </c>
       <c r="H19" t="n">
-        <v>47.07029468621586</v>
+        <v>47.07029468621589</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2050,13 +2050,13 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>92.08430510333697</v>
+        <v>92.084305103337</v>
       </c>
       <c r="T19" t="n">
         <v>121.8642290480643</v>
       </c>
       <c r="U19" t="n">
-        <v>188.5271179775079</v>
+        <v>188.527117977508</v>
       </c>
       <c r="V19" t="n">
         <v>154.4529230957231</v>
@@ -2065,7 +2065,7 @@
         <v>188.8382781084861</v>
       </c>
       <c r="X19" t="n">
-        <v>128.0249351609322</v>
+        <v>128.0249351609323</v>
       </c>
       <c r="Y19" t="n">
         <v>120.8999331239899</v>
@@ -2078,25 +2078,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>285.0491214353756</v>
+        <v>285.0491214353757</v>
       </c>
       <c r="C20" t="n">
-        <v>267.5881715429026</v>
+        <v>267.5881715429027</v>
       </c>
       <c r="D20" t="n">
-        <v>256.998321392578</v>
+        <v>256.9983213925781</v>
       </c>
       <c r="E20" t="n">
-        <v>284.2456498441568</v>
+        <v>284.2456498441569</v>
       </c>
       <c r="F20" t="n">
-        <v>309.1913255136065</v>
+        <v>309.1913255136066</v>
       </c>
       <c r="G20" t="n">
-        <v>313.2370054253485</v>
+        <v>313.2370054253486</v>
       </c>
       <c r="H20" t="n">
-        <v>196.9230441592155</v>
+        <v>196.9230441592156</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2129,10 +2129,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>11.50304156007091</v>
+        <v>11.50304156007093</v>
       </c>
       <c r="T20" t="n">
-        <v>106.2332499115152</v>
+        <v>106.2332499115154</v>
       </c>
       <c r="U20" t="n">
         <v>153.3104517307971</v>
@@ -2144,7 +2144,7 @@
         <v>251.5562484893081</v>
       </c>
       <c r="X20" t="n">
-        <v>272.0463804503641</v>
+        <v>272.0463804503642</v>
       </c>
       <c r="Y20" t="n">
         <v>288.5532184279487</v>
@@ -2175,10 +2175,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H21" t="n">
-        <v>89.59687541851095</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I21" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2205,10 +2205,10 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734107401</v>
       </c>
       <c r="S21" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T21" t="n">
         <v>190.7165703189231</v>
@@ -2236,25 +2236,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>82.14725995383237</v>
+        <v>82.14725995383242</v>
       </c>
       <c r="C22" t="n">
-        <v>69.56210087052291</v>
+        <v>69.56210087052295</v>
       </c>
       <c r="D22" t="n">
-        <v>50.93075279010743</v>
+        <v>50.93075279010748</v>
       </c>
       <c r="E22" t="n">
-        <v>48.74924241846425</v>
+        <v>48.74924241846429</v>
       </c>
       <c r="F22" t="n">
-        <v>47.73632779482632</v>
+        <v>47.73632779482637</v>
       </c>
       <c r="G22" t="n">
-        <v>68.3410880309233</v>
+        <v>68.34108803092334</v>
       </c>
       <c r="H22" t="n">
-        <v>47.07029468621586</v>
+        <v>47.0702946862159</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2287,13 +2287,13 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>92.08430510333697</v>
+        <v>92.08430510333702</v>
       </c>
       <c r="T22" t="n">
         <v>121.8642290480643</v>
       </c>
       <c r="U22" t="n">
-        <v>188.5271179775079</v>
+        <v>188.527117977508</v>
       </c>
       <c r="V22" t="n">
         <v>154.4529230957231</v>
@@ -2302,7 +2302,7 @@
         <v>188.8382781084861</v>
       </c>
       <c r="X22" t="n">
-        <v>128.0249351609322</v>
+        <v>128.0249351609323</v>
       </c>
       <c r="Y22" t="n">
         <v>120.8999331239899</v>
@@ -2315,25 +2315,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>285.0491214353756</v>
+        <v>285.0491214353757</v>
       </c>
       <c r="C23" t="n">
-        <v>267.5881715429026</v>
+        <v>267.5881715429027</v>
       </c>
       <c r="D23" t="n">
-        <v>256.998321392578</v>
+        <v>256.9983213925781</v>
       </c>
       <c r="E23" t="n">
-        <v>284.2456498441568</v>
+        <v>284.2456498441569</v>
       </c>
       <c r="F23" t="n">
-        <v>309.1913255136065</v>
+        <v>309.1913255136066</v>
       </c>
       <c r="G23" t="n">
-        <v>313.2370054253485</v>
+        <v>313.2370054253486</v>
       </c>
       <c r="H23" t="n">
-        <v>196.9230441592155</v>
+        <v>196.9230441592156</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2366,10 +2366,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>11.5030415600709</v>
+        <v>11.50304156007095</v>
       </c>
       <c r="T23" t="n">
-        <v>106.2332499115152</v>
+        <v>106.2332499115153</v>
       </c>
       <c r="U23" t="n">
         <v>153.3104517307971</v>
@@ -2381,7 +2381,7 @@
         <v>251.5562484893081</v>
       </c>
       <c r="X23" t="n">
-        <v>272.0463804503641</v>
+        <v>272.0463804503642</v>
       </c>
       <c r="Y23" t="n">
         <v>288.5532184279487</v>
@@ -2460,7 +2460,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X24" t="n">
-        <v>205.7729852034775</v>
+        <v>205.7729852034777</v>
       </c>
       <c r="Y24" t="n">
         <v>205.6826957773044</v>
@@ -2473,25 +2473,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>82.14725995383237</v>
+        <v>82.14725995383242</v>
       </c>
       <c r="C25" t="n">
-        <v>69.56210087052291</v>
+        <v>69.56210087052295</v>
       </c>
       <c r="D25" t="n">
-        <v>50.93075279010743</v>
+        <v>50.93075279010748</v>
       </c>
       <c r="E25" t="n">
-        <v>48.74924241846425</v>
+        <v>48.74924241846429</v>
       </c>
       <c r="F25" t="n">
-        <v>47.73632779482632</v>
+        <v>47.73632779482637</v>
       </c>
       <c r="G25" t="n">
-        <v>68.3410880309233</v>
+        <v>68.34108803092334</v>
       </c>
       <c r="H25" t="n">
-        <v>47.07029468621586</v>
+        <v>47.0702946862159</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2524,13 +2524,13 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>92.08430510333697</v>
+        <v>92.08430510333702</v>
       </c>
       <c r="T25" t="n">
         <v>121.8642290480643</v>
       </c>
       <c r="U25" t="n">
-        <v>188.5271179775079</v>
+        <v>188.527117977508</v>
       </c>
       <c r="V25" t="n">
         <v>154.4529230957231</v>
@@ -2539,7 +2539,7 @@
         <v>188.8382781084861</v>
       </c>
       <c r="X25" t="n">
-        <v>128.0249351609322</v>
+        <v>128.0249351609323</v>
       </c>
       <c r="Y25" t="n">
         <v>120.8999331239899</v>
@@ -2561,7 +2561,7 @@
         <v>298.575251165504</v>
       </c>
       <c r="E26" t="n">
-        <v>325.8225796170828</v>
+        <v>325.8225796170829</v>
       </c>
       <c r="F26" t="n">
         <v>350.7682552865325</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>53.07997133299686</v>
+        <v>53.07997133299688</v>
       </c>
       <c r="T26" t="n">
         <v>147.8101796844412</v>
@@ -2612,16 +2612,16 @@
         <v>194.887381503723</v>
       </c>
       <c r="V26" t="n">
-        <v>271.6444680149559</v>
+        <v>271.644468014956</v>
       </c>
       <c r="W26" t="n">
-        <v>293.133178262234</v>
+        <v>293.1331782622341</v>
       </c>
       <c r="X26" t="n">
-        <v>313.62331022329</v>
+        <v>313.6233102232901</v>
       </c>
       <c r="Y26" t="n">
-        <v>330.1301482008746</v>
+        <v>330.1301482008747</v>
       </c>
     </row>
     <row r="27">
@@ -2646,13 +2646,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
-        <v>134.9994691657081</v>
+        <v>134.9994691657082</v>
       </c>
       <c r="H27" t="n">
         <v>89.59687541851115</v>
       </c>
       <c r="I27" t="n">
-        <v>18.81721868247755</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>123.7241897267583</v>
+        <v>123.7241897267584</v>
       </c>
       <c r="C28" t="n">
-        <v>111.1390306434488</v>
+        <v>111.1390306434489</v>
       </c>
       <c r="D28" t="n">
-        <v>92.50768256303337</v>
+        <v>92.50768256303341</v>
       </c>
       <c r="E28" t="n">
-        <v>90.32617219139019</v>
+        <v>90.32617219139023</v>
       </c>
       <c r="F28" t="n">
-        <v>89.31325756775226</v>
+        <v>89.3132575677523</v>
       </c>
       <c r="G28" t="n">
-        <v>109.9180178038492</v>
+        <v>109.9180178038493</v>
       </c>
       <c r="H28" t="n">
-        <v>88.6472244591418</v>
+        <v>88.64722445914184</v>
       </c>
       <c r="I28" t="n">
-        <v>40.24462995465911</v>
+        <v>40.24462995465915</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,28 +2758,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>32.82436221486834</v>
+        <v>32.82436221486839</v>
       </c>
       <c r="S28" t="n">
-        <v>133.6612348762629</v>
+        <v>133.661234876263</v>
       </c>
       <c r="T28" t="n">
-        <v>163.4411588209902</v>
+        <v>163.4411588209903</v>
       </c>
       <c r="U28" t="n">
         <v>230.1040477504339</v>
       </c>
       <c r="V28" t="n">
-        <v>196.029852868649</v>
+        <v>196.0298528686491</v>
       </c>
       <c r="W28" t="n">
-        <v>230.415207881412</v>
+        <v>230.4152078814121</v>
       </c>
       <c r="X28" t="n">
         <v>169.6018649338582</v>
       </c>
       <c r="Y28" t="n">
-        <v>162.4768628969158</v>
+        <v>162.4768628969159</v>
       </c>
     </row>
     <row r="29">
@@ -2798,7 +2798,7 @@
         <v>298.575251165504</v>
       </c>
       <c r="E29" t="n">
-        <v>325.8225796170828</v>
+        <v>325.8225796170829</v>
       </c>
       <c r="F29" t="n">
         <v>350.7682552865325</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>53.07997133299686</v>
+        <v>53.07997133299691</v>
       </c>
       <c r="T29" t="n">
         <v>147.8101796844412</v>
@@ -2849,16 +2849,16 @@
         <v>194.887381503723</v>
       </c>
       <c r="V29" t="n">
-        <v>271.6444680149559</v>
+        <v>271.644468014956</v>
       </c>
       <c r="W29" t="n">
-        <v>293.133178262234</v>
+        <v>293.1331782622341</v>
       </c>
       <c r="X29" t="n">
-        <v>313.62331022329</v>
+        <v>313.6233102232901</v>
       </c>
       <c r="Y29" t="n">
-        <v>330.1301482008746</v>
+        <v>330.1301482008747</v>
       </c>
     </row>
     <row r="30">
@@ -2886,7 +2886,7 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H30" t="n">
-        <v>89.59687541851129</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I30" t="n">
         <v>18.81721868247742</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>123.7241897267583</v>
+        <v>123.7241897267584</v>
       </c>
       <c r="C31" t="n">
-        <v>111.1390306434488</v>
+        <v>111.1390306434489</v>
       </c>
       <c r="D31" t="n">
-        <v>92.50768256303337</v>
+        <v>92.50768256303343</v>
       </c>
       <c r="E31" t="n">
-        <v>90.32617219139019</v>
+        <v>90.32617219139024</v>
       </c>
       <c r="F31" t="n">
-        <v>89.31325756775226</v>
+        <v>89.31325756775232</v>
       </c>
       <c r="G31" t="n">
-        <v>109.9180178038492</v>
+        <v>109.9180178038493</v>
       </c>
       <c r="H31" t="n">
-        <v>88.6472244591418</v>
+        <v>88.64722445914185</v>
       </c>
       <c r="I31" t="n">
-        <v>40.24462995465911</v>
+        <v>40.24462995465917</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>32.82436221486834</v>
+        <v>32.8243622148684</v>
       </c>
       <c r="S31" t="n">
-        <v>133.6612348762629</v>
+        <v>133.661234876263</v>
       </c>
       <c r="T31" t="n">
-        <v>163.4411588209902</v>
+        <v>163.4411588209903</v>
       </c>
       <c r="U31" t="n">
         <v>230.1040477504339</v>
       </c>
       <c r="V31" t="n">
-        <v>196.029852868649</v>
+        <v>196.0298528686491</v>
       </c>
       <c r="W31" t="n">
-        <v>230.415207881412</v>
+        <v>230.4152078814121</v>
       </c>
       <c r="X31" t="n">
         <v>169.6018649338582</v>
       </c>
       <c r="Y31" t="n">
-        <v>162.4768628969158</v>
+        <v>162.4768628969159</v>
       </c>
     </row>
     <row r="32">
@@ -3026,25 +3026,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>326.6260512083015</v>
+        <v>326.6260512083016</v>
       </c>
       <c r="C32" t="n">
-        <v>309.1651013158285</v>
+        <v>309.1651013158286</v>
       </c>
       <c r="D32" t="n">
-        <v>298.5752511655039</v>
+        <v>298.575251165504</v>
       </c>
       <c r="E32" t="n">
-        <v>325.8225796170827</v>
+        <v>325.8225796170829</v>
       </c>
       <c r="F32" t="n">
-        <v>350.7682552865324</v>
+        <v>350.7682552865325</v>
       </c>
       <c r="G32" t="n">
-        <v>354.8139351982744</v>
+        <v>354.8139351982745</v>
       </c>
       <c r="H32" t="n">
-        <v>238.4999739321414</v>
+        <v>238.4999739321415</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>53.07997133299679</v>
+        <v>53.07997133299688</v>
       </c>
       <c r="T32" t="n">
-        <v>147.8101796844411</v>
+        <v>147.8101796844412</v>
       </c>
       <c r="U32" t="n">
-        <v>194.8873815037229</v>
+        <v>194.887381503723</v>
       </c>
       <c r="V32" t="n">
-        <v>271.6444680149559</v>
+        <v>271.644468014956</v>
       </c>
       <c r="W32" t="n">
-        <v>293.133178262234</v>
+        <v>293.1331782622341</v>
       </c>
       <c r="X32" t="n">
-        <v>313.62331022329</v>
+        <v>313.6233102232901</v>
       </c>
       <c r="Y32" t="n">
-        <v>330.1301482008745</v>
+        <v>330.1301482008747</v>
       </c>
     </row>
     <row r="33">
@@ -3187,25 +3187,25 @@
         <v>123.7241897267583</v>
       </c>
       <c r="C34" t="n">
-        <v>111.1390306434488</v>
+        <v>111.1390306434489</v>
       </c>
       <c r="D34" t="n">
-        <v>92.50768256303331</v>
+        <v>92.5076825630334</v>
       </c>
       <c r="E34" t="n">
-        <v>90.32617219139013</v>
+        <v>90.32617219139021</v>
       </c>
       <c r="F34" t="n">
-        <v>89.3132575677522</v>
+        <v>89.31325756775229</v>
       </c>
       <c r="G34" t="n">
-        <v>109.9180178038492</v>
+        <v>109.9180178038493</v>
       </c>
       <c r="H34" t="n">
-        <v>88.64722445914174</v>
+        <v>88.64722445914182</v>
       </c>
       <c r="I34" t="n">
-        <v>40.24462995465905</v>
+        <v>40.24462995465914</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>32.82436221486829</v>
+        <v>32.82436221486837</v>
       </c>
       <c r="S34" t="n">
         <v>133.6612348762629</v>
@@ -3241,7 +3241,7 @@
         <v>163.4411588209902</v>
       </c>
       <c r="U34" t="n">
-        <v>230.1040477504338</v>
+        <v>230.1040477504339</v>
       </c>
       <c r="V34" t="n">
         <v>196.029852868649</v>
@@ -3250,10 +3250,10 @@
         <v>230.415207881412</v>
       </c>
       <c r="X34" t="n">
-        <v>169.6018649338581</v>
+        <v>169.6018649338582</v>
       </c>
       <c r="Y34" t="n">
-        <v>162.4768628969157</v>
+        <v>162.4768628969158</v>
       </c>
     </row>
     <row r="35">
@@ -3263,25 +3263,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>285.0491214353756</v>
+        <v>285.0491214353757</v>
       </c>
       <c r="C35" t="n">
-        <v>267.5881715429026</v>
+        <v>267.5881715429027</v>
       </c>
       <c r="D35" t="n">
-        <v>256.998321392578</v>
+        <v>256.9983213925781</v>
       </c>
       <c r="E35" t="n">
-        <v>284.2456498441568</v>
+        <v>284.2456498441569</v>
       </c>
       <c r="F35" t="n">
-        <v>309.1913255136065</v>
+        <v>309.1913255136066</v>
       </c>
       <c r="G35" t="n">
-        <v>313.2370054253485</v>
+        <v>313.2370054253486</v>
       </c>
       <c r="H35" t="n">
-        <v>196.9230441592155</v>
+        <v>196.9230441592156</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3314,13 +3314,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>11.50304156007088</v>
+        <v>11.50304156007094</v>
       </c>
       <c r="T35" t="n">
-        <v>106.2332499115152</v>
+        <v>106.2332499115153</v>
       </c>
       <c r="U35" t="n">
-        <v>153.310451730797</v>
+        <v>153.3104517307971</v>
       </c>
       <c r="V35" t="n">
         <v>230.06753824203</v>
@@ -3329,7 +3329,7 @@
         <v>251.5562484893081</v>
       </c>
       <c r="X35" t="n">
-        <v>272.0463804503641</v>
+        <v>272.0463804503642</v>
       </c>
       <c r="Y35" t="n">
         <v>288.5532184279487</v>
@@ -3348,7 +3348,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
-        <v>147.4450655646384</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
         <v>157.6450804554009</v>
@@ -3421,25 +3421,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>82.14725995383235</v>
+        <v>82.1472599538324</v>
       </c>
       <c r="C37" t="n">
-        <v>69.56210087052288</v>
+        <v>69.56210087052294</v>
       </c>
       <c r="D37" t="n">
-        <v>50.93075279010741</v>
+        <v>50.93075279010746</v>
       </c>
       <c r="E37" t="n">
-        <v>48.74924241846422</v>
+        <v>48.74924241846428</v>
       </c>
       <c r="F37" t="n">
-        <v>47.73632779482629</v>
+        <v>47.73632779482635</v>
       </c>
       <c r="G37" t="n">
-        <v>68.34108803092327</v>
+        <v>68.34108803092333</v>
       </c>
       <c r="H37" t="n">
-        <v>47.07029468621583</v>
+        <v>47.07029468621589</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3472,13 +3472,13 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>92.08430510333694</v>
+        <v>92.084305103337</v>
       </c>
       <c r="T37" t="n">
         <v>121.8642290480643</v>
       </c>
       <c r="U37" t="n">
-        <v>188.5271179775079</v>
+        <v>188.527117977508</v>
       </c>
       <c r="V37" t="n">
         <v>154.4529230957231</v>
@@ -3487,10 +3487,10 @@
         <v>188.8382781084861</v>
       </c>
       <c r="X37" t="n">
-        <v>128.0249351609322</v>
+        <v>128.0249351609323</v>
       </c>
       <c r="Y37" t="n">
-        <v>120.8999331239898</v>
+        <v>120.8999331239899</v>
       </c>
     </row>
     <row r="38">
@@ -3500,25 +3500,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>285.0491214353756</v>
+        <v>285.0491214353757</v>
       </c>
       <c r="C38" t="n">
-        <v>267.5881715429026</v>
+        <v>267.5881715429027</v>
       </c>
       <c r="D38" t="n">
-        <v>256.998321392578</v>
+        <v>256.9983213925781</v>
       </c>
       <c r="E38" t="n">
-        <v>284.2456498441568</v>
+        <v>284.2456498441569</v>
       </c>
       <c r="F38" t="n">
-        <v>309.1913255136065</v>
+        <v>309.1913255136066</v>
       </c>
       <c r="G38" t="n">
-        <v>313.2370054253485</v>
+        <v>313.2370054253486</v>
       </c>
       <c r="H38" t="n">
-        <v>196.9230441592155</v>
+        <v>196.9230441592156</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3551,13 +3551,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>11.50304156007088</v>
+        <v>11.50304156007094</v>
       </c>
       <c r="T38" t="n">
-        <v>106.2332499115152</v>
+        <v>106.2332499115153</v>
       </c>
       <c r="U38" t="n">
-        <v>153.310451730797</v>
+        <v>153.3104517307971</v>
       </c>
       <c r="V38" t="n">
         <v>230.06753824203</v>
@@ -3566,7 +3566,7 @@
         <v>251.5562484893081</v>
       </c>
       <c r="X38" t="n">
-        <v>272.0463804503641</v>
+        <v>272.0463804503642</v>
       </c>
       <c r="Y38" t="n">
         <v>288.5532184279487</v>
@@ -3594,7 +3594,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
-        <v>134.9994691657081</v>
+        <v>134.9994691657078</v>
       </c>
       <c r="H39" t="n">
         <v>89.59687541851115</v>
@@ -3658,25 +3658,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>82.14725995383235</v>
+        <v>82.1472599538324</v>
       </c>
       <c r="C40" t="n">
-        <v>69.56210087052288</v>
+        <v>69.56210087052294</v>
       </c>
       <c r="D40" t="n">
-        <v>50.93075279010741</v>
+        <v>50.93075279010746</v>
       </c>
       <c r="E40" t="n">
-        <v>48.74924241846422</v>
+        <v>48.74924241846428</v>
       </c>
       <c r="F40" t="n">
-        <v>47.73632779482629</v>
+        <v>47.73632779482635</v>
       </c>
       <c r="G40" t="n">
-        <v>68.34108803092327</v>
+        <v>68.34108803092333</v>
       </c>
       <c r="H40" t="n">
-        <v>47.07029468621583</v>
+        <v>47.07029468621589</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3709,13 +3709,13 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>92.08430510333694</v>
+        <v>92.084305103337</v>
       </c>
       <c r="T40" t="n">
         <v>121.8642290480643</v>
       </c>
       <c r="U40" t="n">
-        <v>188.5271179775079</v>
+        <v>188.527117977508</v>
       </c>
       <c r="V40" t="n">
         <v>154.4529230957231</v>
@@ -3724,10 +3724,10 @@
         <v>188.8382781084861</v>
       </c>
       <c r="X40" t="n">
-        <v>128.0249351609322</v>
+        <v>128.0249351609323</v>
       </c>
       <c r="Y40" t="n">
-        <v>120.8999331239898</v>
+        <v>120.8999331239899</v>
       </c>
     </row>
     <row r="41">
@@ -3737,25 +3737,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>285.0491214353756</v>
+        <v>285.0491214353757</v>
       </c>
       <c r="C41" t="n">
-        <v>267.5881715429026</v>
+        <v>267.5881715429027</v>
       </c>
       <c r="D41" t="n">
-        <v>256.998321392578</v>
+        <v>256.9983213925781</v>
       </c>
       <c r="E41" t="n">
-        <v>284.2456498441568</v>
+        <v>284.2456498441569</v>
       </c>
       <c r="F41" t="n">
-        <v>309.1913255136065</v>
+        <v>309.1913255136066</v>
       </c>
       <c r="G41" t="n">
-        <v>313.2370054253485</v>
+        <v>313.2370054253486</v>
       </c>
       <c r="H41" t="n">
-        <v>196.9230441592155</v>
+        <v>196.9230441592156</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3788,10 +3788,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>11.50304156007091</v>
+        <v>11.50304156007094</v>
       </c>
       <c r="T41" t="n">
-        <v>106.2332499115152</v>
+        <v>106.2332499115153</v>
       </c>
       <c r="U41" t="n">
         <v>153.3104517307971</v>
@@ -3803,7 +3803,7 @@
         <v>251.5562484893081</v>
       </c>
       <c r="X41" t="n">
-        <v>272.0463804503641</v>
+        <v>272.0463804503642</v>
       </c>
       <c r="Y41" t="n">
         <v>288.5532184279487</v>
@@ -3822,7 +3822,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
-        <v>147.4450655646384</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E42" t="n">
         <v>157.6450804554009</v>
@@ -3837,7 +3837,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I42" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824772</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3895,25 +3895,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>82.14725995383237</v>
+        <v>82.1472599538324</v>
       </c>
       <c r="C43" t="n">
-        <v>69.56210087052291</v>
+        <v>69.56210087052294</v>
       </c>
       <c r="D43" t="n">
-        <v>50.93075279010743</v>
+        <v>50.93075279010746</v>
       </c>
       <c r="E43" t="n">
-        <v>48.74924241846425</v>
+        <v>48.74924241846428</v>
       </c>
       <c r="F43" t="n">
-        <v>47.73632779482632</v>
+        <v>47.73632779482635</v>
       </c>
       <c r="G43" t="n">
-        <v>68.3410880309233</v>
+        <v>68.34108803092333</v>
       </c>
       <c r="H43" t="n">
-        <v>47.07029468621586</v>
+        <v>47.07029468621589</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3946,13 +3946,13 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>92.08430510333697</v>
+        <v>92.084305103337</v>
       </c>
       <c r="T43" t="n">
         <v>121.8642290480643</v>
       </c>
       <c r="U43" t="n">
-        <v>188.5271179775079</v>
+        <v>188.527117977508</v>
       </c>
       <c r="V43" t="n">
         <v>154.4529230957231</v>
@@ -3961,7 +3961,7 @@
         <v>188.8382781084861</v>
       </c>
       <c r="X43" t="n">
-        <v>128.0249351609322</v>
+        <v>128.0249351609323</v>
       </c>
       <c r="Y43" t="n">
         <v>120.8999331239899</v>
@@ -3974,25 +3974,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>285.0491214353756</v>
+        <v>285.0491214353757</v>
       </c>
       <c r="C44" t="n">
-        <v>267.5881715429026</v>
+        <v>267.5881715429027</v>
       </c>
       <c r="D44" t="n">
-        <v>256.998321392578</v>
+        <v>256.9983213925781</v>
       </c>
       <c r="E44" t="n">
-        <v>284.2456498441568</v>
+        <v>284.2456498441569</v>
       </c>
       <c r="F44" t="n">
-        <v>309.1913255136065</v>
+        <v>309.1913255136066</v>
       </c>
       <c r="G44" t="n">
-        <v>313.2370054253485</v>
+        <v>313.2370054253486</v>
       </c>
       <c r="H44" t="n">
-        <v>196.9230441592155</v>
+        <v>196.9230441592156</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4025,10 +4025,10 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>11.50304156007091</v>
+        <v>11.50304156007094</v>
       </c>
       <c r="T44" t="n">
-        <v>106.2332499115152</v>
+        <v>106.2332499115153</v>
       </c>
       <c r="U44" t="n">
         <v>153.3104517307971</v>
@@ -4040,7 +4040,7 @@
         <v>251.5562484893081</v>
       </c>
       <c r="X44" t="n">
-        <v>272.0463804503641</v>
+        <v>272.0463804503642</v>
       </c>
       <c r="Y44" t="n">
         <v>288.5532184279487</v>
@@ -4065,7 +4065,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F45" t="n">
-        <v>145.0692123933839</v>
+        <v>145.0692123933836</v>
       </c>
       <c r="G45" t="n">
         <v>134.9994691657081</v>
@@ -4107,7 +4107,7 @@
         <v>128.1435076414547</v>
       </c>
       <c r="T45" t="n">
-        <v>190.7165703189229</v>
+        <v>190.7165703189231</v>
       </c>
       <c r="U45" t="n">
         <v>225.7871683969286</v>
@@ -4132,25 +4132,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>82.14725995383237</v>
+        <v>82.1472599538324</v>
       </c>
       <c r="C46" t="n">
-        <v>69.56210087052291</v>
+        <v>69.56210087052294</v>
       </c>
       <c r="D46" t="n">
-        <v>50.93075279010743</v>
+        <v>50.93075279010746</v>
       </c>
       <c r="E46" t="n">
-        <v>48.74924241846425</v>
+        <v>48.74924241846428</v>
       </c>
       <c r="F46" t="n">
-        <v>47.73632779482632</v>
+        <v>47.73632779482635</v>
       </c>
       <c r="G46" t="n">
-        <v>68.3410880309233</v>
+        <v>68.34108803092333</v>
       </c>
       <c r="H46" t="n">
-        <v>47.07029468621586</v>
+        <v>47.07029468621589</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4183,13 +4183,13 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>92.08430510333697</v>
+        <v>92.084305103337</v>
       </c>
       <c r="T46" t="n">
         <v>121.8642290480643</v>
       </c>
       <c r="U46" t="n">
-        <v>188.5271179775079</v>
+        <v>188.527117977508</v>
       </c>
       <c r="V46" t="n">
         <v>154.4529230957231</v>
@@ -4198,7 +4198,7 @@
         <v>188.8382781084861</v>
       </c>
       <c r="X46" t="n">
-        <v>128.0249351609322</v>
+        <v>128.0249351609323</v>
       </c>
       <c r="Y46" t="n">
         <v>120.8999331239899</v>
@@ -5015,37 +5015,37 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>943.4967804458595</v>
+        <v>999.234548285023</v>
       </c>
       <c r="C11" t="n">
-        <v>943.4967804458595</v>
+        <v>999.234548285023</v>
       </c>
       <c r="D11" t="n">
-        <v>943.4967804458595</v>
+        <v>682.9657484388038</v>
       </c>
       <c r="E11" t="n">
-        <v>943.4967804458595</v>
+        <v>682.9657484388038</v>
       </c>
       <c r="F11" t="n">
-        <v>574.5077744167833</v>
+        <v>682.9657484388038</v>
       </c>
       <c r="G11" t="n">
         <v>308.9438868185425</v>
       </c>
       <c r="H11" t="n">
-        <v>43.66578558797897</v>
+        <v>43.66578558797898</v>
       </c>
       <c r="I11" t="n">
-        <v>43.66578558797897</v>
+        <v>43.66578558797898</v>
       </c>
       <c r="J11" t="n">
-        <v>153.8263252817109</v>
+        <v>153.826325281711</v>
       </c>
       <c r="K11" t="n">
-        <v>369.6669363545812</v>
+        <v>369.6669363545816</v>
       </c>
       <c r="L11" t="n">
-        <v>674.3380621808151</v>
+        <v>674.3380621808158</v>
       </c>
       <c r="M11" t="n">
         <v>1045.012830947799</v>
@@ -5054,37 +5054,37 @@
         <v>1426.299313380805</v>
       </c>
       <c r="O11" t="n">
-        <v>1773.002065483132</v>
+        <v>1773.002065483133</v>
       </c>
       <c r="P11" t="n">
         <v>2034.403842291854</v>
       </c>
       <c r="Q11" t="n">
-        <v>2182.532943734424</v>
+        <v>2182.532943734425</v>
       </c>
       <c r="R11" t="n">
         <v>2183.289279398949</v>
       </c>
       <c r="S11" t="n">
-        <v>2093.431465416407</v>
+        <v>2093.431465416408</v>
       </c>
       <c r="T11" t="n">
-        <v>1925.30814354777</v>
+        <v>2093.431465416408</v>
       </c>
       <c r="U11" t="n">
-        <v>1925.30814354777</v>
+        <v>1881.822182632712</v>
       </c>
       <c r="V11" t="n">
-        <v>1636.242154964731</v>
+        <v>1592.756194049673</v>
       </c>
       <c r="W11" t="n">
-        <v>1636.242154964731</v>
+        <v>1330.703407785572</v>
       </c>
       <c r="X11" t="n">
-        <v>1636.242154964731</v>
+        <v>999.234548285023</v>
       </c>
       <c r="Y11" t="n">
-        <v>1288.09972174945</v>
+        <v>999.234548285023</v>
       </c>
     </row>
     <row r="12">
@@ -5094,13 +5094,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>653.1051512191791</v>
+        <v>653.1051512191793</v>
       </c>
       <c r="C12" t="n">
-        <v>520.6490206985834</v>
+        <v>520.6490206985835</v>
       </c>
       <c r="D12" t="n">
-        <v>413.7115097978634</v>
+        <v>413.7115097978635</v>
       </c>
       <c r="E12" t="n">
         <v>296.4709535529392</v>
@@ -5112,25 +5112,25 @@
         <v>97.06077232543285</v>
       </c>
       <c r="H12" t="n">
-        <v>43.66578558797897</v>
+        <v>43.66578558797898</v>
       </c>
       <c r="I12" t="n">
-        <v>49.11227720096714</v>
+        <v>44.32184908413193</v>
       </c>
       <c r="J12" t="n">
-        <v>95.90529301031316</v>
+        <v>132.2760253686746</v>
       </c>
       <c r="K12" t="n">
-        <v>290.4075671936729</v>
+        <v>331.5687276688698</v>
       </c>
       <c r="L12" t="n">
-        <v>549.3574809768672</v>
+        <v>631.6798019272608</v>
       </c>
       <c r="M12" t="n">
-        <v>870.8966846557523</v>
+        <v>953.2190056061459</v>
       </c>
       <c r="N12" t="n">
-        <v>1256.5158796772</v>
+        <v>1297.677040152397</v>
       </c>
       <c r="O12" t="n">
         <v>1590.569051224139</v>
@@ -5160,10 +5160,10 @@
         <v>1110.94159092814</v>
       </c>
       <c r="X12" t="n">
-        <v>945.0869894831385</v>
+        <v>945.0869894831388</v>
       </c>
       <c r="Y12" t="n">
-        <v>779.3235894787159</v>
+        <v>779.3235894787161</v>
       </c>
     </row>
     <row r="13">
@@ -5173,40 +5173,40 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>488.7251898531701</v>
+        <v>270.9486901187923</v>
       </c>
       <c r="C13" t="n">
-        <v>488.7251898531701</v>
+        <v>270.9486901187923</v>
       </c>
       <c r="D13" t="n">
-        <v>380.6054492013657</v>
+        <v>270.9486901187923</v>
       </c>
       <c r="E13" t="n">
-        <v>274.6892543795038</v>
+        <v>165.0324952969304</v>
       </c>
       <c r="F13" t="n">
-        <v>169.7962056421247</v>
+        <v>165.0324952969304</v>
       </c>
       <c r="G13" t="n">
-        <v>43.66578558797897</v>
+        <v>43.66578558797898</v>
       </c>
       <c r="H13" t="n">
-        <v>43.66578558797897</v>
+        <v>43.66578558797898</v>
       </c>
       <c r="I13" t="n">
-        <v>43.66578558797897</v>
+        <v>43.66578558797898</v>
       </c>
       <c r="J13" t="n">
-        <v>100.5359044465451</v>
+        <v>100.5359044465449</v>
       </c>
       <c r="K13" t="n">
         <v>297.3485458605401</v>
       </c>
       <c r="L13" t="n">
-        <v>593.216447611086</v>
+        <v>593.2164476110859</v>
       </c>
       <c r="M13" t="n">
-        <v>913.3192773353014</v>
+        <v>913.3192773353013</v>
       </c>
       <c r="N13" t="n">
         <v>1232.224114051915</v>
@@ -5221,28 +5221,28 @@
         <v>1821.29553671104</v>
       </c>
       <c r="R13" t="n">
-        <v>1754.37571542226</v>
+        <v>1821.29553671104</v>
       </c>
       <c r="S13" t="n">
-        <v>1597.289163127145</v>
+        <v>1664.208984415925</v>
       </c>
       <c r="T13" t="n">
-        <v>1415.705749829783</v>
+        <v>1482.625571118563</v>
       </c>
       <c r="U13" t="n">
-        <v>1168.576628141991</v>
+        <v>1235.496449430771</v>
       </c>
       <c r="V13" t="n">
-        <v>1168.576628141991</v>
+        <v>1022.808859985415</v>
       </c>
       <c r="W13" t="n">
-        <v>921.1563568655614</v>
+        <v>775.3885887089857</v>
       </c>
       <c r="X13" t="n">
-        <v>807.1724363058775</v>
+        <v>589.3959365714996</v>
       </c>
       <c r="Y13" t="n">
-        <v>628.3767559228786</v>
+        <v>410.6002561885008</v>
       </c>
     </row>
     <row r="14">
@@ -5252,28 +5252,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1326.03941567625</v>
+        <v>1334.322242118062</v>
       </c>
       <c r="C14" t="n">
-        <v>1326.03941567625</v>
+        <v>1007.356623938181</v>
       </c>
       <c r="D14" t="n">
-        <v>1152.368027693445</v>
+        <v>691.0878240919612</v>
       </c>
       <c r="E14" t="n">
-        <v>808.5766738557318</v>
+        <v>691.0878240919612</v>
       </c>
       <c r="F14" t="n">
-        <v>439.5876678266554</v>
+        <v>322.098818062885</v>
       </c>
       <c r="G14" t="n">
-        <v>66.51211643218343</v>
+        <v>322.098818062885</v>
       </c>
       <c r="H14" t="n">
         <v>66.51211643218343</v>
       </c>
       <c r="I14" t="n">
-        <v>66.51211643218357</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J14" t="n">
         <v>255.3912473912096</v>
@@ -5306,22 +5306,22 @@
         <v>3325.605821609171</v>
       </c>
       <c r="T14" t="n">
-        <v>3161.624972753925</v>
+        <v>3169.907799195736</v>
       </c>
       <c r="U14" t="n">
-        <v>2950.091394788292</v>
+        <v>2958.374221230103</v>
       </c>
       <c r="V14" t="n">
-        <v>2661.025406205253</v>
+        <v>2669.308232647064</v>
       </c>
       <c r="W14" t="n">
-        <v>2350.25364969567</v>
+        <v>2358.536476137481</v>
       </c>
       <c r="X14" t="n">
-        <v>2018.784790195121</v>
+        <v>2027.067616636933</v>
       </c>
       <c r="Y14" t="n">
-        <v>1670.642356979841</v>
+        <v>1678.925183421652</v>
       </c>
     </row>
     <row r="15">
@@ -5331,25 +5331,25 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C15" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D15" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E15" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F15" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G15" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H15" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064525</v>
       </c>
       <c r="I15" t="n">
         <v>66.51211643218343</v>
@@ -5388,7 +5388,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U15" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V15" t="n">
         <v>1779.608347199865</v>
@@ -5397,10 +5397,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X15" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y15" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="16">
@@ -5410,46 +5410,46 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>693.4151010964771</v>
+        <v>692.7423403807089</v>
       </c>
       <c r="C16" t="n">
-        <v>566.4758169291015</v>
+        <v>565.8030562133333</v>
       </c>
       <c r="D16" t="n">
-        <v>458.356076277297</v>
+        <v>457.6833155615288</v>
       </c>
       <c r="E16" t="n">
-        <v>352.4398814554352</v>
+        <v>351.767120739667</v>
       </c>
       <c r="F16" t="n">
-        <v>247.5468327180561</v>
+        <v>351.767120739667</v>
       </c>
       <c r="G16" t="n">
-        <v>121.8408948533068</v>
+        <v>226.0611828749172</v>
       </c>
       <c r="H16" t="n">
-        <v>121.8408948533068</v>
+        <v>121.8408948533063</v>
       </c>
       <c r="I16" t="n">
         <v>66.51211643218343</v>
       </c>
       <c r="J16" t="n">
-        <v>152.7959093543157</v>
+        <v>152.7959093543156</v>
       </c>
       <c r="K16" t="n">
-        <v>397.9442527783888</v>
+        <v>397.9442527783887</v>
       </c>
       <c r="L16" t="n">
-        <v>755.6652117020816</v>
+        <v>755.6652117020815</v>
       </c>
       <c r="M16" t="n">
         <v>1140.983417776827</v>
       </c>
       <c r="N16" t="n">
-        <v>1523.552954957888</v>
+        <v>1523.552954957889</v>
       </c>
       <c r="O16" t="n">
-        <v>1864.043714353498</v>
+        <v>1864.043714353499</v>
       </c>
       <c r="P16" t="n">
         <v>2137.812375262355</v>
@@ -5461,25 +5461,25 @@
         <v>2208.750273408125</v>
       </c>
       <c r="S16" t="n">
-        <v>2084.838545192224</v>
+        <v>2059.061287995483</v>
       </c>
       <c r="T16" t="n">
-        <v>1905.068828522281</v>
+        <v>1904.396067806513</v>
       </c>
       <c r="U16" t="n">
-        <v>1657.962860408455</v>
+        <v>1657.290099692688</v>
       </c>
       <c r="V16" t="n">
-        <v>1445.2752709631</v>
+        <v>1444.602510247332</v>
       </c>
       <c r="W16" t="n">
-        <v>1197.85499968667</v>
+        <v>1197.182238970903</v>
       </c>
       <c r="X16" t="n">
-        <v>1011.862347549184</v>
+        <v>1011.189586833416</v>
       </c>
       <c r="Y16" t="n">
-        <v>833.0666671661855</v>
+        <v>832.3939064504174</v>
       </c>
     </row>
     <row r="17">
@@ -5489,19 +5489,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1711.141932470375</v>
+        <v>1711.141932470373</v>
       </c>
       <c r="C17" t="n">
-        <v>1440.850850103806</v>
+        <v>1440.850850103805</v>
       </c>
       <c r="D17" t="n">
-        <v>1181.256586070899</v>
+        <v>1181.256586070898</v>
       </c>
       <c r="E17" t="n">
-        <v>894.1397680464984</v>
+        <v>894.139768046497</v>
       </c>
       <c r="F17" t="n">
-        <v>581.8252978307341</v>
+        <v>581.8252978307328</v>
       </c>
       <c r="G17" t="n">
         <v>265.4242822495729</v>
@@ -5513,19 +5513,19 @@
         <v>66.51211643218343</v>
       </c>
       <c r="J17" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912083</v>
       </c>
       <c r="K17" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810548</v>
       </c>
       <c r="L17" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M17" t="n">
         <v>1573.776739001388</v>
       </c>
       <c r="N17" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O17" t="n">
         <v>2623.528026939508</v>
@@ -5543,22 +5543,22 @@
         <v>3313.98658771011</v>
       </c>
       <c r="T17" t="n">
-        <v>3206.680274668176</v>
+        <v>3206.680274668175</v>
       </c>
       <c r="U17" t="n">
-        <v>3051.821232515856</v>
+        <v>3051.821232515855</v>
       </c>
       <c r="V17" t="n">
-        <v>2819.429779746129</v>
+        <v>2819.429779746127</v>
       </c>
       <c r="W17" t="n">
-        <v>2565.332559049858</v>
+        <v>2565.332559049856</v>
       </c>
       <c r="X17" t="n">
-        <v>2290.538235362621</v>
+        <v>2290.53823536262</v>
       </c>
       <c r="Y17" t="n">
-        <v>1999.070337960653</v>
+        <v>1999.070337960651</v>
       </c>
     </row>
     <row r="18">
@@ -5568,37 +5568,37 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>941.5438544811084</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C18" t="n">
-        <v>767.0908251999814</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D18" t="n">
-        <v>618.1564155387301</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E18" t="n">
-        <v>458.9189605332746</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F18" t="n">
-        <v>312.3844025601596</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G18" t="n">
-        <v>176.0213023927777</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H18" t="n">
-        <v>85.51940803064525</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I18" t="n">
         <v>66.51211643218343</v>
       </c>
       <c r="J18" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K18" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031477</v>
       </c>
       <c r="L18" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M18" t="n">
         <v>1212.428070438129</v>
@@ -5647,16 +5647,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>402.2593958170926</v>
+        <v>402.2593958170928</v>
       </c>
       <c r="C19" t="n">
-        <v>331.9946474630291</v>
+        <v>331.9946474630292</v>
       </c>
       <c r="D19" t="n">
-        <v>280.5494426245367</v>
+        <v>280.5494426245368</v>
       </c>
       <c r="E19" t="n">
-        <v>231.307783615987</v>
+        <v>231.3077836159871</v>
       </c>
       <c r="F19" t="n">
         <v>183.08927069192</v>
@@ -5668,55 +5668,55 @@
         <v>66.51211643218343</v>
       </c>
       <c r="I19" t="n">
-        <v>67.83109325226759</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J19" t="n">
-        <v>176.3617198155309</v>
+        <v>78.33486996962289</v>
       </c>
       <c r="K19" t="n">
-        <v>274.6725740832013</v>
+        <v>262.1948921089737</v>
       </c>
       <c r="L19" t="n">
-        <v>527.0902910313824</v>
+        <v>417.904736031331</v>
       </c>
       <c r="M19" t="n">
-        <v>791.2306453564041</v>
+        <v>682.0450903563526</v>
       </c>
       <c r="N19" t="n">
-        <v>1059.247355412076</v>
+        <v>950.0618004120239</v>
       </c>
       <c r="O19" t="n">
-        <v>1197.165704630265</v>
+        <v>1184.688022656037</v>
       </c>
       <c r="P19" t="n">
         <v>1380.34689843462</v>
       </c>
       <c r="Q19" t="n">
-        <v>1489.975538818984</v>
+        <v>1489.975538818985</v>
       </c>
       <c r="R19" t="n">
-        <v>1489.975538818984</v>
+        <v>1489.975538818985</v>
       </c>
       <c r="S19" t="n">
         <v>1396.961089219654</v>
       </c>
       <c r="T19" t="n">
-        <v>1273.865908363023</v>
+        <v>1273.865908363024</v>
       </c>
       <c r="U19" t="n">
-        <v>1083.43447606251</v>
+        <v>1083.434476062511</v>
       </c>
       <c r="V19" t="n">
-        <v>927.4214224304669</v>
+        <v>927.4214224304673</v>
       </c>
       <c r="W19" t="n">
-        <v>736.6756869673496</v>
+        <v>736.67568696735</v>
       </c>
       <c r="X19" t="n">
-        <v>607.3575706431757</v>
+        <v>607.3575706431759</v>
       </c>
       <c r="Y19" t="n">
-        <v>485.236426073489</v>
+        <v>485.2364260734892</v>
       </c>
     </row>
     <row r="20">
@@ -5726,49 +5726,49 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1711.141932470374</v>
+        <v>1711.141932470373</v>
       </c>
       <c r="C20" t="n">
-        <v>1440.850850103806</v>
+        <v>1440.850850103805</v>
       </c>
       <c r="D20" t="n">
         <v>1181.256586070898</v>
       </c>
       <c r="E20" t="n">
-        <v>894.1397680464976</v>
+        <v>894.139768046497</v>
       </c>
       <c r="F20" t="n">
-        <v>581.8252978307333</v>
+        <v>581.825297830733</v>
       </c>
       <c r="G20" t="n">
         <v>265.4242822495729</v>
       </c>
       <c r="H20" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I20" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J20" t="n">
-        <v>255.3912473912092</v>
+        <v>255.391247391209</v>
       </c>
       <c r="K20" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810556</v>
       </c>
       <c r="L20" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M20" t="n">
         <v>1573.776739001389</v>
       </c>
       <c r="N20" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O20" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P20" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q20" t="n">
         <v>3266.588755052369</v>
@@ -5786,16 +5786,16 @@
         <v>3051.821232515855</v>
       </c>
       <c r="V20" t="n">
-        <v>2819.429779746128</v>
+        <v>2819.429779746127</v>
       </c>
       <c r="W20" t="n">
         <v>2565.332559049857</v>
       </c>
       <c r="X20" t="n">
-        <v>2290.538235362621</v>
+        <v>2290.53823536262</v>
       </c>
       <c r="Y20" t="n">
-        <v>1999.070337960653</v>
+        <v>1999.070337960652</v>
       </c>
     </row>
     <row r="21">
@@ -5805,52 +5805,52 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>941.5438544811084</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C21" t="n">
-        <v>767.0908251999814</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D21" t="n">
-        <v>618.1564155387301</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E21" t="n">
-        <v>458.9189605332746</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F21" t="n">
-        <v>312.3844025601596</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G21" t="n">
-        <v>176.0213023927777</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H21" t="n">
         <v>85.51940803064545</v>
       </c>
       <c r="I21" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J21" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K21" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L21" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158137</v>
       </c>
       <c r="M21" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N21" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O21" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P21" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q21" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R21" t="n">
         <v>2564.909189125856</v>
@@ -5862,7 +5862,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U21" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V21" t="n">
         <v>1779.608347199865</v>
@@ -5871,10 +5871,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X21" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y21" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>402.2593958170926</v>
+        <v>402.2593958170929</v>
       </c>
       <c r="C22" t="n">
-        <v>331.9946474630291</v>
+        <v>331.9946474630293</v>
       </c>
       <c r="D22" t="n">
-        <v>280.5494426245367</v>
+        <v>280.5494426245369</v>
       </c>
       <c r="E22" t="n">
-        <v>231.3077836159869</v>
+        <v>231.3077836159871</v>
       </c>
       <c r="F22" t="n">
-        <v>183.0892706919199</v>
+        <v>183.08927069192</v>
       </c>
       <c r="G22" t="n">
         <v>114.0578686404823</v>
       </c>
       <c r="H22" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I22" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J22" t="n">
-        <v>78.33486996962287</v>
+        <v>175.0427429954468</v>
       </c>
       <c r="K22" t="n">
-        <v>273.3535972631171</v>
+        <v>370.061470288941</v>
       </c>
       <c r="L22" t="n">
-        <v>525.7713142112982</v>
+        <v>525.7713142112983</v>
       </c>
       <c r="M22" t="n">
-        <v>789.9116685363199</v>
+        <v>693.2037955104962</v>
       </c>
       <c r="N22" t="n">
-        <v>1057.928378591991</v>
+        <v>950.0618004120242</v>
       </c>
       <c r="O22" t="n">
-        <v>1292.554600836005</v>
+        <v>1184.688022656038</v>
       </c>
       <c r="P22" t="n">
-        <v>1391.505603588764</v>
+        <v>1380.34689843462</v>
       </c>
       <c r="Q22" t="n">
-        <v>1481.310496936507</v>
+        <v>1489.975538818985</v>
       </c>
       <c r="R22" t="n">
-        <v>1489.975538818984</v>
+        <v>1489.975538818985</v>
       </c>
       <c r="S22" t="n">
-        <v>1396.961089219654</v>
+        <v>1396.961089219655</v>
       </c>
       <c r="T22" t="n">
-        <v>1273.865908363023</v>
+        <v>1273.865908363024</v>
       </c>
       <c r="U22" t="n">
-        <v>1083.43447606251</v>
+        <v>1083.434476062511</v>
       </c>
       <c r="V22" t="n">
-        <v>927.4214224304669</v>
+        <v>927.4214224304675</v>
       </c>
       <c r="W22" t="n">
-        <v>736.6756869673496</v>
+        <v>736.6756869673502</v>
       </c>
       <c r="X22" t="n">
-        <v>607.3575706431757</v>
+        <v>607.3575706431761</v>
       </c>
       <c r="Y22" t="n">
-        <v>485.236426073489</v>
+        <v>485.2364260734893</v>
       </c>
     </row>
     <row r="23">
@@ -5963,7 +5963,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1711.141932470373</v>
+        <v>1711.141932470374</v>
       </c>
       <c r="C23" t="n">
         <v>1440.850850103805</v>
@@ -5972,19 +5972,19 @@
         <v>1181.256586070898</v>
       </c>
       <c r="E23" t="n">
-        <v>894.1397680464972</v>
+        <v>894.1397680464971</v>
       </c>
       <c r="F23" t="n">
-        <v>581.825297830733</v>
+        <v>581.8252978307329</v>
       </c>
       <c r="G23" t="n">
         <v>265.4242822495729</v>
       </c>
       <c r="H23" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="I23" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J23" t="n">
         <v>255.3912473912089</v>
@@ -6002,25 +6002,25 @@
         <v>2120.555556060171</v>
       </c>
       <c r="O23" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P23" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296688</v>
       </c>
       <c r="Q23" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.58875505237</v>
       </c>
       <c r="R23" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S23" t="n">
-        <v>3313.98658771011</v>
+        <v>3313.986587710111</v>
       </c>
       <c r="T23" t="n">
         <v>3206.680274668176</v>
       </c>
       <c r="U23" t="n">
-        <v>3051.821232515855</v>
+        <v>3051.821232515856</v>
       </c>
       <c r="V23" t="n">
         <v>2819.429779746128</v>
@@ -6029,7 +6029,7 @@
         <v>2565.332559049857</v>
       </c>
       <c r="X23" t="n">
-        <v>2290.53823536262</v>
+        <v>2290.538235362621</v>
       </c>
       <c r="Y23" t="n">
         <v>1999.070337960652</v>
@@ -6042,40 +6042,40 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>941.5438544811091</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C24" t="n">
-        <v>767.0908251999821</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D24" t="n">
-        <v>618.1564155387309</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E24" t="n">
-        <v>458.9189605332754</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F24" t="n">
-        <v>312.3844025601604</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G24" t="n">
-        <v>176.0213023927789</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H24" t="n">
-        <v>85.51940803064585</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I24" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J24" t="n">
-        <v>160.1893859228011</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K24" t="n">
-        <v>398.4535849031485</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L24" t="n">
-        <v>765.1517452158139</v>
+        <v>765.1517452158133</v>
       </c>
       <c r="M24" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N24" t="n">
         <v>1685.951113992584</v>
@@ -6087,7 +6087,7 @@
         <v>2407.411984886742</v>
       </c>
       <c r="Q24" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R24" t="n">
         <v>2564.909189125857</v>
@@ -6096,13 +6096,13 @@
         <v>2435.471302619337</v>
       </c>
       <c r="T24" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U24" t="n">
         <v>2014.760455431608</v>
       </c>
       <c r="V24" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W24" t="n">
         <v>1525.370990471664</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>402.2593958170926</v>
+        <v>402.2593958170929</v>
       </c>
       <c r="C25" t="n">
-        <v>331.9946474630291</v>
+        <v>331.9946474630293</v>
       </c>
       <c r="D25" t="n">
-        <v>280.5494426245367</v>
+        <v>280.5494426245369</v>
       </c>
       <c r="E25" t="n">
-        <v>231.307783615987</v>
+        <v>231.3077836159871</v>
       </c>
       <c r="F25" t="n">
-        <v>183.08927069192</v>
+        <v>183.0892706919201</v>
       </c>
       <c r="G25" t="n">
         <v>114.0578686404823</v>
       </c>
       <c r="H25" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="I25" t="n">
-        <v>67.83109325226759</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J25" t="n">
-        <v>176.3617198155309</v>
+        <v>175.0427429954467</v>
       </c>
       <c r="K25" t="n">
-        <v>371.3804471090252</v>
+        <v>358.902765134798</v>
       </c>
       <c r="L25" t="n">
-        <v>623.7981640572063</v>
+        <v>611.3204820829791</v>
       </c>
       <c r="M25" t="n">
-        <v>791.2306453564041</v>
+        <v>778.7529633821769</v>
       </c>
       <c r="N25" t="n">
-        <v>962.5394823862516</v>
+        <v>950.0618004120244</v>
       </c>
       <c r="O25" t="n">
-        <v>1197.165704630265</v>
+        <v>1184.688022656038</v>
       </c>
       <c r="P25" t="n">
-        <v>1392.824580408848</v>
+        <v>1380.34689843462</v>
       </c>
       <c r="Q25" t="n">
-        <v>1481.310496936507</v>
+        <v>1489.975538818985</v>
       </c>
       <c r="R25" t="n">
-        <v>1489.975538818984</v>
+        <v>1489.975538818985</v>
       </c>
       <c r="S25" t="n">
-        <v>1396.961089219654</v>
+        <v>1396.961089219655</v>
       </c>
       <c r="T25" t="n">
-        <v>1273.865908363023</v>
+        <v>1273.865908363024</v>
       </c>
       <c r="U25" t="n">
-        <v>1083.43447606251</v>
+        <v>1083.434476062511</v>
       </c>
       <c r="V25" t="n">
-        <v>927.4214224304669</v>
+        <v>927.4214224304675</v>
       </c>
       <c r="W25" t="n">
-        <v>736.6756869673496</v>
+        <v>736.6756869673502</v>
       </c>
       <c r="X25" t="n">
-        <v>607.3575706431757</v>
+        <v>607.3575706431761</v>
       </c>
       <c r="Y25" t="n">
-        <v>485.236426073489</v>
+        <v>485.2364260734893</v>
       </c>
     </row>
     <row r="26">
@@ -6200,34 +6200,34 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1975.122438965142</v>
+        <v>1975.12243896514</v>
       </c>
       <c r="C26" t="n">
-        <v>1662.834457838042</v>
+        <v>1662.83445783804</v>
       </c>
       <c r="D26" t="n">
-        <v>1361.243295044604</v>
+        <v>1361.243295044602</v>
       </c>
       <c r="E26" t="n">
-        <v>1032.129578259671</v>
+        <v>1032.12957825967</v>
       </c>
       <c r="F26" t="n">
-        <v>677.8182092833761</v>
+        <v>677.8182092833749</v>
       </c>
       <c r="G26" t="n">
-        <v>319.4202949416845</v>
+        <v>319.4202949416846</v>
       </c>
       <c r="H26" t="n">
-        <v>78.5112303637638</v>
+        <v>78.51123036376379</v>
       </c>
       <c r="I26" t="n">
-        <v>92.89678243919431</v>
+        <v>92.89678243919424</v>
       </c>
       <c r="J26" t="n">
-        <v>410.9732435652105</v>
+        <v>410.9732435652107</v>
       </c>
       <c r="K26" t="n">
-        <v>800.3393298056842</v>
+        <v>800.3393298056843</v>
       </c>
       <c r="L26" t="n">
         <v>1306.92025560472</v>
@@ -6239,7 +6239,7 @@
         <v>2498.324402436681</v>
       </c>
       <c r="O26" t="n">
-        <v>3056.843585866646</v>
+        <v>3056.843585866645</v>
       </c>
       <c r="P26" t="n">
         <v>3507.164664774451</v>
@@ -6248,28 +6248,28 @@
         <v>3810.99773908076</v>
       </c>
       <c r="R26" t="n">
-        <v>3925.56151818819</v>
+        <v>3925.561518188189</v>
       </c>
       <c r="S26" t="n">
-        <v>3871.945385528597</v>
+        <v>3871.945385528596</v>
       </c>
       <c r="T26" t="n">
-        <v>3722.642173726131</v>
+        <v>3722.64217372613</v>
       </c>
       <c r="U26" t="n">
-        <v>3525.78623281328</v>
+        <v>3525.786232813279</v>
       </c>
       <c r="V26" t="n">
-        <v>3251.397881283021</v>
+        <v>3251.39788128302</v>
       </c>
       <c r="W26" t="n">
-        <v>2955.303761826219</v>
+        <v>2955.303761826217</v>
       </c>
       <c r="X26" t="n">
-        <v>2638.512539378451</v>
+        <v>2638.512539378449</v>
       </c>
       <c r="Y26" t="n">
-        <v>2305.047743215951</v>
+        <v>2305.04774321595</v>
       </c>
     </row>
     <row r="27">
@@ -6294,13 +6294,13 @@
         <v>324.3835164917404</v>
       </c>
       <c r="G27" t="n">
-        <v>188.0204163243585</v>
+        <v>188.0204163243583</v>
       </c>
       <c r="H27" t="n">
-        <v>97.51852196222598</v>
+        <v>97.51852196222583</v>
       </c>
       <c r="I27" t="n">
-        <v>78.5112303637638</v>
+        <v>78.51123036376379</v>
       </c>
       <c r="J27" t="n">
         <v>172.1884998543811</v>
@@ -6358,58 +6358,58 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>706.8910436802031</v>
+        <v>706.8910436802033</v>
       </c>
       <c r="C28" t="n">
-        <v>594.6293965656083</v>
+        <v>594.6293965656084</v>
       </c>
       <c r="D28" t="n">
-        <v>501.1872929665847</v>
+        <v>501.1872929665848</v>
       </c>
       <c r="E28" t="n">
-        <v>409.9487351975037</v>
+        <v>409.9487351975038</v>
       </c>
       <c r="F28" t="n">
-        <v>319.7333235129054</v>
+        <v>319.7333235129055</v>
       </c>
       <c r="G28" t="n">
-        <v>208.7050227009364</v>
+        <v>208.7050227009365</v>
       </c>
       <c r="H28" t="n">
-        <v>119.1623717321063</v>
+        <v>119.1623717321064</v>
       </c>
       <c r="I28" t="n">
-        <v>78.5112303637638</v>
+        <v>78.51123036376379</v>
       </c>
       <c r="J28" t="n">
-        <v>179.1805753613266</v>
+        <v>145.8806964518304</v>
       </c>
       <c r="K28" t="n">
-        <v>438.7144708608301</v>
+        <v>405.4145919513339</v>
       </c>
       <c r="L28" t="n">
-        <v>810.8209818599535</v>
+        <v>777.5211029504572</v>
       </c>
       <c r="M28" t="n">
-        <v>1152.006925482768</v>
+        <v>1000.500296800282</v>
       </c>
       <c r="N28" t="n">
-        <v>1548.96201473926</v>
+        <v>1387.550765037037</v>
       </c>
       <c r="O28" t="n">
-        <v>1742.427076508077</v>
+        <v>1742.427076508078</v>
       </c>
       <c r="P28" t="n">
-        <v>2030.581289492363</v>
+        <v>2030.581289492364</v>
       </c>
       <c r="Q28" t="n">
-        <v>2163.738298195505</v>
+        <v>2163.738298195506</v>
       </c>
       <c r="R28" t="n">
-        <v>2130.582376766345</v>
+        <v>2130.582376766346</v>
       </c>
       <c r="S28" t="n">
-        <v>1995.571028406483</v>
+        <v>1995.571028406484</v>
       </c>
       <c r="T28" t="n">
         <v>1830.478948789322</v>
@@ -6424,10 +6424,10 @@
         <v>1167.298031112054</v>
       </c>
       <c r="X28" t="n">
-        <v>995.9830160273488</v>
+        <v>995.983016027349</v>
       </c>
       <c r="Y28" t="n">
-        <v>831.8649726971307</v>
+        <v>831.864972697131</v>
       </c>
     </row>
     <row r="29">
@@ -6437,7 +6437,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1975.122438965141</v>
+        <v>1975.122438965142</v>
       </c>
       <c r="C29" t="n">
         <v>1662.834457838042</v>
@@ -6449,40 +6449,40 @@
         <v>1032.129578259671</v>
       </c>
       <c r="F29" t="n">
-        <v>677.8182092833761</v>
+        <v>677.8182092833758</v>
       </c>
       <c r="G29" t="n">
-        <v>319.4202949416845</v>
+        <v>319.4202949416846</v>
       </c>
       <c r="H29" t="n">
         <v>78.51123036376379</v>
       </c>
       <c r="I29" t="n">
-        <v>92.8967824391943</v>
+        <v>92.89678243919424</v>
       </c>
       <c r="J29" t="n">
-        <v>337.3226259488469</v>
+        <v>410.9732435652107</v>
       </c>
       <c r="K29" t="n">
-        <v>726.6887121893205</v>
+        <v>800.3393298056843</v>
       </c>
       <c r="L29" t="n">
-        <v>1233.269637988357</v>
+        <v>1306.92025560472</v>
       </c>
       <c r="M29" t="n">
-        <v>1822.348255210908</v>
+        <v>1895.998872827272</v>
       </c>
       <c r="N29" t="n">
-        <v>2424.673784820318</v>
+        <v>2498.324402436681</v>
       </c>
       <c r="O29" t="n">
-        <v>2983.192968250282</v>
+        <v>3056.843585866645</v>
       </c>
       <c r="P29" t="n">
-        <v>3507.16466477445</v>
+        <v>3507.164664774451</v>
       </c>
       <c r="Q29" t="n">
-        <v>3810.997739080759</v>
+        <v>3810.99773908076</v>
       </c>
       <c r="R29" t="n">
         <v>3925.561518188189</v>
@@ -6491,16 +6491,16 @@
         <v>3871.945385528596</v>
       </c>
       <c r="T29" t="n">
-        <v>3722.64217372613</v>
+        <v>3722.642173726131</v>
       </c>
       <c r="U29" t="n">
-        <v>3525.786232813279</v>
+        <v>3525.78623281328</v>
       </c>
       <c r="V29" t="n">
         <v>3251.397881283021</v>
       </c>
       <c r="W29" t="n">
-        <v>2955.303761826218</v>
+        <v>2955.303761826219</v>
       </c>
       <c r="X29" t="n">
         <v>2638.512539378451</v>
@@ -6516,22 +6516,22 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>953.5429684126891</v>
+        <v>953.5429684126889</v>
       </c>
       <c r="C30" t="n">
-        <v>779.0899391315621</v>
+        <v>779.0899391315619</v>
       </c>
       <c r="D30" t="n">
-        <v>630.1555294703109</v>
+        <v>630.1555294703107</v>
       </c>
       <c r="E30" t="n">
-        <v>470.9180744648554</v>
+        <v>470.9180744648552</v>
       </c>
       <c r="F30" t="n">
-        <v>324.3835164917404</v>
+        <v>324.3835164917402</v>
       </c>
       <c r="G30" t="n">
-        <v>188.0204163243585</v>
+        <v>188.0204163243588</v>
       </c>
       <c r="H30" t="n">
         <v>97.51852196222583</v>
@@ -6546,7 +6546,7 @@
         <v>410.4526988347283</v>
       </c>
       <c r="L30" t="n">
-        <v>777.1508591473937</v>
+        <v>777.1508591473939</v>
       </c>
       <c r="M30" t="n">
         <v>1224.42718436971</v>
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>706.8910436802031</v>
+        <v>706.8910436802034</v>
       </c>
       <c r="C31" t="n">
-        <v>594.6293965656083</v>
+        <v>594.6293965656085</v>
       </c>
       <c r="D31" t="n">
-        <v>501.1872929665847</v>
+        <v>501.1872929665848</v>
       </c>
       <c r="E31" t="n">
-        <v>409.9487351975037</v>
+        <v>409.9487351975038</v>
       </c>
       <c r="F31" t="n">
-        <v>319.7333235129054</v>
+        <v>319.7333235129055</v>
       </c>
       <c r="G31" t="n">
-        <v>208.7050227009364</v>
+        <v>208.7050227009365</v>
       </c>
       <c r="H31" t="n">
-        <v>119.1623717321063</v>
+        <v>119.1623717321064</v>
       </c>
       <c r="I31" t="n">
         <v>78.51123036376379</v>
@@ -6622,31 +6622,31 @@
         <v>145.8806964518304</v>
       </c>
       <c r="K31" t="n">
-        <v>405.414591951334</v>
+        <v>299.7382632701279</v>
       </c>
       <c r="L31" t="n">
-        <v>724.5484153112687</v>
+        <v>671.8447742692512</v>
       </c>
       <c r="M31" t="n">
-        <v>1124.252173461445</v>
+        <v>1071.548532419427</v>
       </c>
       <c r="N31" t="n">
-        <v>1521.207262717937</v>
+        <v>1468.503621675919</v>
       </c>
       <c r="O31" t="n">
-        <v>1876.083574188978</v>
+        <v>1807.116605302052</v>
       </c>
       <c r="P31" t="n">
-        <v>2030.581289492363</v>
+        <v>2095.270818286338</v>
       </c>
       <c r="Q31" t="n">
-        <v>2163.738298195505</v>
+        <v>2163.738298195506</v>
       </c>
       <c r="R31" t="n">
-        <v>2130.582376766345</v>
+        <v>2130.582376766346</v>
       </c>
       <c r="S31" t="n">
-        <v>1995.571028406483</v>
+        <v>1995.571028406484</v>
       </c>
       <c r="T31" t="n">
         <v>1830.478948789322</v>
@@ -6661,10 +6661,10 @@
         <v>1167.298031112054</v>
       </c>
       <c r="X31" t="n">
-        <v>995.9830160273488</v>
+        <v>995.9830160273491</v>
       </c>
       <c r="Y31" t="n">
-        <v>831.8649726971307</v>
+        <v>831.8649726971311</v>
       </c>
     </row>
     <row r="32">
@@ -6674,7 +6674,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1975.122438965142</v>
+        <v>1975.122438965141</v>
       </c>
       <c r="C32" t="n">
         <v>1662.834457838042</v>
@@ -6686,7 +6686,7 @@
         <v>1032.129578259671</v>
       </c>
       <c r="F32" t="n">
-        <v>677.8182092833759</v>
+        <v>677.8182092833754</v>
       </c>
       <c r="G32" t="n">
         <v>319.4202949416845</v>
@@ -6695,31 +6695,31 @@
         <v>78.51123036376379</v>
       </c>
       <c r="I32" t="n">
-        <v>92.89678243919434</v>
+        <v>92.89678243919427</v>
       </c>
       <c r="J32" t="n">
-        <v>410.9732435652095</v>
+        <v>337.3226259488468</v>
       </c>
       <c r="K32" t="n">
-        <v>800.3393298056833</v>
+        <v>726.6887121893205</v>
       </c>
       <c r="L32" t="n">
-        <v>1306.920255604719</v>
+        <v>1233.269637988357</v>
       </c>
       <c r="M32" t="n">
-        <v>1895.998872827271</v>
+        <v>1822.348255210908</v>
       </c>
       <c r="N32" t="n">
-        <v>2498.32440243668</v>
+        <v>2424.673784820318</v>
       </c>
       <c r="O32" t="n">
-        <v>3056.843585866645</v>
+        <v>2983.192968250282</v>
       </c>
       <c r="P32" t="n">
-        <v>3507.16466477445</v>
+        <v>3507.164664774451</v>
       </c>
       <c r="Q32" t="n">
-        <v>3810.997739080759</v>
+        <v>3810.99773908076</v>
       </c>
       <c r="R32" t="n">
         <v>3925.561518188189</v>
@@ -6728,19 +6728,19 @@
         <v>3871.945385528596</v>
       </c>
       <c r="T32" t="n">
-        <v>3722.64217372613</v>
+        <v>3722.642173726131</v>
       </c>
       <c r="U32" t="n">
         <v>3525.786232813279</v>
       </c>
       <c r="V32" t="n">
-        <v>3251.39788128302</v>
+        <v>3251.397881283021</v>
       </c>
       <c r="W32" t="n">
         <v>2955.303761826218</v>
       </c>
       <c r="X32" t="n">
-        <v>2638.512539378451</v>
+        <v>2638.51253937845</v>
       </c>
       <c r="Y32" t="n">
         <v>2305.047743215951</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>706.8910436802026</v>
+        <v>706.8910436802032</v>
       </c>
       <c r="C34" t="n">
-        <v>594.6293965656079</v>
+        <v>594.6293965656083</v>
       </c>
       <c r="D34" t="n">
-        <v>501.1872929665843</v>
+        <v>501.1872929665847</v>
       </c>
       <c r="E34" t="n">
-        <v>409.9487351975033</v>
+        <v>409.9487351975037</v>
       </c>
       <c r="F34" t="n">
-        <v>319.7333235129051</v>
+        <v>319.7333235129054</v>
       </c>
       <c r="G34" t="n">
-        <v>208.7050227009363</v>
+        <v>208.7050227009365</v>
       </c>
       <c r="H34" t="n">
-        <v>119.1623717321063</v>
+        <v>119.1623717321064</v>
       </c>
       <c r="I34" t="n">
         <v>78.51123036376379</v>
       </c>
       <c r="J34" t="n">
-        <v>179.1805753613266</v>
+        <v>145.8806964518304</v>
       </c>
       <c r="K34" t="n">
-        <v>333.0381421796242</v>
+        <v>405.4145919513339</v>
       </c>
       <c r="L34" t="n">
-        <v>705.1446531787476</v>
+        <v>777.5211029504572</v>
       </c>
       <c r="M34" t="n">
-        <v>1104.848411328924</v>
+        <v>1177.224861100633</v>
       </c>
       <c r="N34" t="n">
-        <v>1501.803500585416</v>
+        <v>1574.179950357125</v>
       </c>
       <c r="O34" t="n">
-        <v>1807.116605302049</v>
+        <v>1929.056261828166</v>
       </c>
       <c r="P34" t="n">
-        <v>2095.270818286335</v>
+        <v>2095.270818286338</v>
       </c>
       <c r="Q34" t="n">
-        <v>2163.738298195503</v>
+        <v>2163.738298195506</v>
       </c>
       <c r="R34" t="n">
-        <v>2130.582376766344</v>
+        <v>2130.582376766346</v>
       </c>
       <c r="S34" t="n">
-        <v>1995.571028406482</v>
+        <v>1995.571028406484</v>
       </c>
       <c r="T34" t="n">
-        <v>1830.478948789321</v>
+        <v>1830.478948789322</v>
       </c>
       <c r="U34" t="n">
-        <v>1598.050617728276</v>
+        <v>1598.050617728278</v>
       </c>
       <c r="V34" t="n">
-        <v>1400.040665335702</v>
+        <v>1400.040665335703</v>
       </c>
       <c r="W34" t="n">
-        <v>1167.298031112053</v>
+        <v>1167.298031112054</v>
       </c>
       <c r="X34" t="n">
-        <v>995.9830160273481</v>
+        <v>995.9830160273489</v>
       </c>
       <c r="Y34" t="n">
-        <v>831.8649726971302</v>
+        <v>831.8649726971308</v>
       </c>
     </row>
     <row r="35">
@@ -6914,16 +6914,16 @@
         <v>1711.141932470374</v>
       </c>
       <c r="C35" t="n">
-        <v>1440.850850103806</v>
+        <v>1440.850850103805</v>
       </c>
       <c r="D35" t="n">
         <v>1181.256586070898</v>
       </c>
       <c r="E35" t="n">
-        <v>894.1397680464979</v>
+        <v>894.1397680464975</v>
       </c>
       <c r="F35" t="n">
-        <v>581.8252978307337</v>
+        <v>581.8252978307332</v>
       </c>
       <c r="G35" t="n">
         <v>265.4242822495729</v>
@@ -6974,13 +6974,13 @@
         <v>2819.429779746128</v>
       </c>
       <c r="W35" t="n">
-        <v>2565.332559049857</v>
+        <v>2565.332559049858</v>
       </c>
       <c r="X35" t="n">
         <v>2290.538235362621</v>
       </c>
       <c r="Y35" t="n">
-        <v>1999.070337960653</v>
+        <v>1999.070337960652</v>
       </c>
     </row>
     <row r="36">
@@ -6990,10 +6990,10 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>941.5438544811084</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C36" t="n">
-        <v>767.0908251999814</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D36" t="n">
         <v>618.1564155387305</v>
@@ -7047,7 +7047,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U36" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V36" t="n">
         <v>1779.608347199865</v>
@@ -7056,10 +7056,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X36" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y36" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="37">
@@ -7069,19 +7069,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>402.2593958170925</v>
+        <v>402.2593958170928</v>
       </c>
       <c r="C37" t="n">
-        <v>331.9946474630289</v>
+        <v>331.9946474630292</v>
       </c>
       <c r="D37" t="n">
-        <v>280.5494426245366</v>
+        <v>280.5494426245368</v>
       </c>
       <c r="E37" t="n">
-        <v>231.3077836159869</v>
+        <v>231.3077836159871</v>
       </c>
       <c r="F37" t="n">
-        <v>183.0892706919199</v>
+        <v>183.08927069192</v>
       </c>
       <c r="G37" t="n">
         <v>114.0578686404823</v>
@@ -7093,52 +7093,52 @@
         <v>66.51211643218343</v>
       </c>
       <c r="J37" t="n">
-        <v>175.0427429954468</v>
+        <v>175.0427429954467</v>
       </c>
       <c r="K37" t="n">
-        <v>370.0614702889411</v>
+        <v>370.061470288941</v>
       </c>
       <c r="L37" t="n">
-        <v>622.4791872371222</v>
+        <v>622.4791872371221</v>
       </c>
       <c r="M37" t="n">
-        <v>789.91166853632</v>
+        <v>789.9116685363199</v>
       </c>
       <c r="N37" t="n">
-        <v>1057.928378591992</v>
+        <v>961.2205055661674</v>
       </c>
       <c r="O37" t="n">
-        <v>1195.846727810181</v>
+        <v>1184.688022656037</v>
       </c>
       <c r="P37" t="n">
-        <v>1371.681856552143</v>
+        <v>1380.34689843462</v>
       </c>
       <c r="Q37" t="n">
-        <v>1481.310496936507</v>
+        <v>1489.975538818985</v>
       </c>
       <c r="R37" t="n">
-        <v>1489.975538818984</v>
+        <v>1489.975538818985</v>
       </c>
       <c r="S37" t="n">
         <v>1396.961089219654</v>
       </c>
       <c r="T37" t="n">
-        <v>1273.865908363023</v>
+        <v>1273.865908363024</v>
       </c>
       <c r="U37" t="n">
-        <v>1083.43447606251</v>
+        <v>1083.434476062511</v>
       </c>
       <c r="V37" t="n">
-        <v>927.4214224304668</v>
+        <v>927.4214224304673</v>
       </c>
       <c r="W37" t="n">
-        <v>736.6756869673495</v>
+        <v>736.67568696735</v>
       </c>
       <c r="X37" t="n">
-        <v>607.3575706431756</v>
+        <v>607.3575706431759</v>
       </c>
       <c r="Y37" t="n">
-        <v>485.2364260734888</v>
+        <v>485.2364260734892</v>
       </c>
     </row>
     <row r="38">
@@ -7151,16 +7151,16 @@
         <v>1711.141932470374</v>
       </c>
       <c r="C38" t="n">
-        <v>1440.850850103806</v>
+        <v>1440.850850103805</v>
       </c>
       <c r="D38" t="n">
-        <v>1181.256586070899</v>
+        <v>1181.256586070898</v>
       </c>
       <c r="E38" t="n">
-        <v>894.1397680464979</v>
+        <v>894.1397680464975</v>
       </c>
       <c r="F38" t="n">
-        <v>581.8252978307337</v>
+        <v>581.8252978307332</v>
       </c>
       <c r="G38" t="n">
         <v>265.4242822495729</v>
@@ -7172,22 +7172,22 @@
         <v>66.51211643218343</v>
       </c>
       <c r="J38" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K38" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L38" t="n">
         <v>1040.244834329465</v>
       </c>
       <c r="M38" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N38" t="n">
         <v>2120.555556060172</v>
       </c>
       <c r="O38" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P38" t="n">
         <v>3018.302393296687</v>
@@ -7202,10 +7202,10 @@
         <v>3313.98658771011</v>
       </c>
       <c r="T38" t="n">
-        <v>3206.680274668176</v>
+        <v>3206.680274668175</v>
       </c>
       <c r="U38" t="n">
-        <v>3051.821232515856</v>
+        <v>3051.821232515855</v>
       </c>
       <c r="V38" t="n">
         <v>2819.429779746128</v>
@@ -7217,7 +7217,7 @@
         <v>2290.538235362621</v>
       </c>
       <c r="Y38" t="n">
-        <v>1999.070337960653</v>
+        <v>1999.070337960652</v>
       </c>
     </row>
     <row r="39">
@@ -7227,19 +7227,19 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C39" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D39" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E39" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F39" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G39" t="n">
         <v>176.021302392778</v>
@@ -7284,7 +7284,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U39" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V39" t="n">
         <v>1779.608347199865</v>
@@ -7293,10 +7293,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X39" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y39" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="40">
@@ -7306,19 +7306,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>402.2593958170925</v>
+        <v>402.2593958170928</v>
       </c>
       <c r="C40" t="n">
-        <v>331.9946474630289</v>
+        <v>331.9946474630292</v>
       </c>
       <c r="D40" t="n">
-        <v>280.5494426245366</v>
+        <v>280.5494426245368</v>
       </c>
       <c r="E40" t="n">
-        <v>231.3077836159869</v>
+        <v>231.3077836159871</v>
       </c>
       <c r="F40" t="n">
-        <v>183.0892706919199</v>
+        <v>183.08927069192</v>
       </c>
       <c r="G40" t="n">
         <v>114.0578686404823</v>
@@ -7330,52 +7330,52 @@
         <v>66.51211643218343</v>
       </c>
       <c r="J40" t="n">
-        <v>175.0427429954468</v>
+        <v>175.0427429954467</v>
       </c>
       <c r="K40" t="n">
-        <v>273.3535972631172</v>
+        <v>273.3535972631171</v>
       </c>
       <c r="L40" t="n">
-        <v>505.9475671746773</v>
+        <v>525.7713142112982</v>
       </c>
       <c r="M40" t="n">
-        <v>770.087921499699</v>
+        <v>778.7529633821764</v>
       </c>
       <c r="N40" t="n">
-        <v>1038.10463155537</v>
+        <v>1046.769673437848</v>
       </c>
       <c r="O40" t="n">
-        <v>1176.02298077356</v>
+        <v>1281.395895681861</v>
       </c>
       <c r="P40" t="n">
-        <v>1371.681856552143</v>
+        <v>1380.34689843462</v>
       </c>
       <c r="Q40" t="n">
-        <v>1481.310496936507</v>
+        <v>1489.975538818985</v>
       </c>
       <c r="R40" t="n">
-        <v>1489.975538818984</v>
+        <v>1489.975538818985</v>
       </c>
       <c r="S40" t="n">
         <v>1396.961089219654</v>
       </c>
       <c r="T40" t="n">
-        <v>1273.865908363023</v>
+        <v>1273.865908363024</v>
       </c>
       <c r="U40" t="n">
-        <v>1083.43447606251</v>
+        <v>1083.434476062511</v>
       </c>
       <c r="V40" t="n">
-        <v>927.4214224304668</v>
+        <v>927.4214224304673</v>
       </c>
       <c r="W40" t="n">
-        <v>736.6756869673495</v>
+        <v>736.67568696735</v>
       </c>
       <c r="X40" t="n">
-        <v>607.3575706431756</v>
+        <v>607.3575706431759</v>
       </c>
       <c r="Y40" t="n">
-        <v>485.2364260734888</v>
+        <v>485.2364260734892</v>
       </c>
     </row>
     <row r="41">
@@ -7394,19 +7394,19 @@
         <v>1181.256586070898</v>
       </c>
       <c r="E41" t="n">
-        <v>894.1397680464972</v>
+        <v>894.139768046497</v>
       </c>
       <c r="F41" t="n">
-        <v>581.825297830733</v>
+        <v>581.8252978307328</v>
       </c>
       <c r="G41" t="n">
         <v>265.4242822495729</v>
       </c>
       <c r="H41" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I41" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218377</v>
       </c>
       <c r="J41" t="n">
         <v>255.3912473912092</v>
@@ -7421,22 +7421,22 @@
         <v>1573.776739001389</v>
       </c>
       <c r="N41" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O41" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P41" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q41" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R41" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S41" t="n">
-        <v>3313.986587710109</v>
+        <v>3313.98658771011</v>
       </c>
       <c r="T41" t="n">
         <v>3206.680274668175</v>
@@ -7445,7 +7445,7 @@
         <v>3051.821232515855</v>
       </c>
       <c r="V41" t="n">
-        <v>2819.429779746127</v>
+        <v>2819.429779746128</v>
       </c>
       <c r="W41" t="n">
         <v>2565.332559049857</v>
@@ -7470,25 +7470,25 @@
         <v>767.0908251999814</v>
       </c>
       <c r="D42" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E42" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F42" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G42" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H42" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064525</v>
       </c>
       <c r="I42" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J42" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K42" t="n">
         <v>398.4535849031479</v>
@@ -7543,43 +7543,43 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>402.2593958170926</v>
+        <v>402.2593958170928</v>
       </c>
       <c r="C43" t="n">
-        <v>331.9946474630291</v>
+        <v>331.9946474630292</v>
       </c>
       <c r="D43" t="n">
-        <v>280.5494426245367</v>
+        <v>280.5494426245368</v>
       </c>
       <c r="E43" t="n">
-        <v>231.3077836159869</v>
+        <v>231.3077836159871</v>
       </c>
       <c r="F43" t="n">
-        <v>183.0892706919199</v>
+        <v>183.08927069192</v>
       </c>
       <c r="G43" t="n">
         <v>114.0578686404823</v>
       </c>
       <c r="H43" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I43" t="n">
-        <v>67.83109325226758</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J43" t="n">
-        <v>176.3617198155309</v>
+        <v>175.0427429954467</v>
       </c>
       <c r="K43" t="n">
-        <v>358.9027651347971</v>
+        <v>358.9027651347976</v>
       </c>
       <c r="L43" t="n">
-        <v>611.3204820829782</v>
+        <v>514.6126090571548</v>
       </c>
       <c r="M43" t="n">
-        <v>875.4608364079999</v>
+        <v>682.0450903563526</v>
       </c>
       <c r="N43" t="n">
-        <v>1046.769673437847</v>
+        <v>950.0618004120239</v>
       </c>
       <c r="O43" t="n">
         <v>1184.688022656037</v>
@@ -7588,31 +7588,31 @@
         <v>1380.34689843462</v>
       </c>
       <c r="Q43" t="n">
-        <v>1489.975538818984</v>
+        <v>1489.975538818985</v>
       </c>
       <c r="R43" t="n">
-        <v>1489.975538818984</v>
+        <v>1489.975538818985</v>
       </c>
       <c r="S43" t="n">
         <v>1396.961089219654</v>
       </c>
       <c r="T43" t="n">
-        <v>1273.865908363023</v>
+        <v>1273.865908363024</v>
       </c>
       <c r="U43" t="n">
-        <v>1083.43447606251</v>
+        <v>1083.434476062511</v>
       </c>
       <c r="V43" t="n">
-        <v>927.4214224304669</v>
+        <v>927.4214224304673</v>
       </c>
       <c r="W43" t="n">
-        <v>736.6756869673496</v>
+        <v>736.67568696735</v>
       </c>
       <c r="X43" t="n">
-        <v>607.3575706431757</v>
+        <v>607.3575706431759</v>
       </c>
       <c r="Y43" t="n">
-        <v>485.236426073489</v>
+        <v>485.2364260734892</v>
       </c>
     </row>
     <row r="44">
@@ -7625,16 +7625,16 @@
         <v>1711.141932470373</v>
       </c>
       <c r="C44" t="n">
-        <v>1440.850850103805</v>
+        <v>1440.850850103804</v>
       </c>
       <c r="D44" t="n">
-        <v>1181.256586070898</v>
+        <v>1181.256586070897</v>
       </c>
       <c r="E44" t="n">
-        <v>894.139768046497</v>
+        <v>894.1397680464966</v>
       </c>
       <c r="F44" t="n">
-        <v>581.8252978307332</v>
+        <v>581.8252978307322</v>
       </c>
       <c r="G44" t="n">
         <v>265.4242822495729</v>
@@ -7673,25 +7673,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S44" t="n">
-        <v>3313.986587710111</v>
+        <v>3313.98658771011</v>
       </c>
       <c r="T44" t="n">
-        <v>3206.680274668176</v>
+        <v>3206.680274668175</v>
       </c>
       <c r="U44" t="n">
-        <v>3051.821232515856</v>
+        <v>3051.821232515855</v>
       </c>
       <c r="V44" t="n">
-        <v>2819.429779746128</v>
+        <v>2819.429779746127</v>
       </c>
       <c r="W44" t="n">
-        <v>2565.332559049857</v>
+        <v>2565.332559049856</v>
       </c>
       <c r="X44" t="n">
         <v>2290.53823536262</v>
       </c>
       <c r="Y44" t="n">
-        <v>1999.070337960652</v>
+        <v>1999.070337960651</v>
       </c>
     </row>
     <row r="45">
@@ -7701,16 +7701,16 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C45" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D45" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E45" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F45" t="n">
         <v>312.3844025601599</v>
@@ -7758,7 +7758,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U45" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V45" t="n">
         <v>1779.608347199865</v>
@@ -7767,10 +7767,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X45" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y45" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="46">
@@ -7780,16 +7780,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>402.2593958170926</v>
+        <v>402.2593958170928</v>
       </c>
       <c r="C46" t="n">
-        <v>331.9946474630291</v>
+        <v>331.9946474630292</v>
       </c>
       <c r="D46" t="n">
-        <v>280.5494426245367</v>
+        <v>280.5494426245368</v>
       </c>
       <c r="E46" t="n">
-        <v>231.307783615987</v>
+        <v>231.3077836159871</v>
       </c>
       <c r="F46" t="n">
         <v>183.08927069192</v>
@@ -7804,10 +7804,10 @@
         <v>66.51211643218343</v>
       </c>
       <c r="J46" t="n">
-        <v>175.0427429954468</v>
+        <v>78.33486996962289</v>
       </c>
       <c r="K46" t="n">
-        <v>370.061470288941</v>
+        <v>273.3535972631171</v>
       </c>
       <c r="L46" t="n">
         <v>525.7713142112982</v>
@@ -7816,40 +7816,40 @@
         <v>789.9116685363199</v>
       </c>
       <c r="N46" t="n">
-        <v>1038.10463155537</v>
+        <v>1057.928378591991</v>
       </c>
       <c r="O46" t="n">
-        <v>1176.02298077356</v>
+        <v>1292.554600836005</v>
       </c>
       <c r="P46" t="n">
-        <v>1371.681856552143</v>
+        <v>1477.054771460444</v>
       </c>
       <c r="Q46" t="n">
-        <v>1481.310496936507</v>
+        <v>1489.975538818985</v>
       </c>
       <c r="R46" t="n">
-        <v>1489.975538818984</v>
+        <v>1489.975538818985</v>
       </c>
       <c r="S46" t="n">
         <v>1396.961089219654</v>
       </c>
       <c r="T46" t="n">
-        <v>1273.865908363023</v>
+        <v>1273.865908363024</v>
       </c>
       <c r="U46" t="n">
-        <v>1083.43447606251</v>
+        <v>1083.434476062511</v>
       </c>
       <c r="V46" t="n">
-        <v>927.4214224304669</v>
+        <v>927.4214224304673</v>
       </c>
       <c r="W46" t="n">
-        <v>736.6756869673496</v>
+        <v>736.67568696735</v>
       </c>
       <c r="X46" t="n">
-        <v>607.3575706431757</v>
+        <v>607.3575706431759</v>
       </c>
       <c r="Y46" t="n">
-        <v>485.236426073489</v>
+        <v>485.2364260734892</v>
       </c>
     </row>
   </sheetData>
@@ -9872,7 +9872,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>74.39456324885208</v>
+        <v>74.39456324885242</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -10030,7 +10030,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>33.63624132272333</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
         <v>106.7437663446525</v>
@@ -10039,13 +10039,13 @@
         <v>162.4747015415544</v>
       </c>
       <c r="M28" t="n">
-        <v>119.4007573464542</v>
+        <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>171.8177168444618</v>
+        <v>161.8130491477581</v>
       </c>
       <c r="O28" t="n">
-        <v>0</v>
+        <v>163.0416663658825</v>
       </c>
       <c r="P28" t="n">
         <v>135.0065633140411</v>
@@ -10109,7 +10109,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>74.39456324885242</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -10127,7 +10127,7 @@
         <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>74.394563248851</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
@@ -10270,10 +10270,10 @@
         <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>106.7437663446525</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>108.9669362494448</v>
+        <v>162.4747015415544</v>
       </c>
       <c r="M31" t="n">
         <v>178.5096609094456</v>
@@ -10282,13 +10282,13 @@
         <v>171.8177168444618</v>
       </c>
       <c r="O31" t="n">
-        <v>163.0416663658825</v>
+        <v>146.6140624821368</v>
       </c>
       <c r="P31" t="n">
-        <v>0</v>
+        <v>135.0065633140411</v>
       </c>
       <c r="Q31" t="n">
-        <v>65.34295837775146</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -10346,7 +10346,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>74.39456324885106</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -10364,7 +10364,7 @@
         <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>74.39456324885145</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
@@ -10504,10 +10504,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>33.63624132272333</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>106.7437663446525</v>
       </c>
       <c r="L34" t="n">
         <v>162.4747015415544</v>
@@ -10519,10 +10519,10 @@
         <v>171.8177168444618</v>
       </c>
       <c r="O34" t="n">
-        <v>112.9778211594101</v>
+        <v>163.0416663658825</v>
       </c>
       <c r="P34" t="n">
-        <v>135.0065633140411</v>
+        <v>11.83519308564212</v>
       </c>
       <c r="Q34" t="n">
         <v>0</v>
@@ -23255,28 +23255,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>341.1569118905546</v>
       </c>
       <c r="C11" t="n">
         <v>323.6959619980816</v>
       </c>
       <c r="D11" t="n">
-        <v>313.106111847757</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>340.3534402993358</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>365.2991159687855</v>
       </c>
       <c r="G11" t="n">
-        <v>107.3733942818003</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>36.1177987299345</v>
+        <v>36.11779872993451</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23309,22 +23309,22 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>166.4420886499518</v>
       </c>
       <c r="U11" t="n">
-        <v>209.4931899558585</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>307.6640389444871</v>
+        <v>48.23178054302745</v>
       </c>
       <c r="X11" t="n">
-        <v>328.1541709055431</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>344.6610088831276</v>
       </c>
     </row>
     <row r="12">
@@ -23419,22 +23419,22 @@
         <v>125.6698913257019</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>107.0385432452864</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>103.8441182500053</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>4.716073241742322</v>
       </c>
       <c r="H13" t="n">
         <v>106.9143773724579</v>
       </c>
       <c r="I13" t="n">
-        <v>67.41317437960814</v>
+        <v>67.41317437960815</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.25062307589236</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23473,13 +23473,13 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>210.5607135509021</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>71.28864426202408</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23495,22 +23495,22 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>323.6959619980816</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>141.1714377447796</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>340.3534402993358</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>369.3447958805275</v>
       </c>
       <c r="H14" t="n">
-        <v>253.0308346143945</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23546,7 +23546,7 @@
         <v>67.61083201524988</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>8.199998177392759</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -23662,13 +23662,13 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>103.8441182500053</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>103.1780851413948</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23701,10 +23701,10 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>25.51948462477361</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>24.85345151616306</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -26320,7 +26320,7 @@
         <v>225319.3487999001</v>
       </c>
       <c r="E2" t="n">
-        <v>178911.4748653837</v>
+        <v>178911.4748653836</v>
       </c>
       <c r="F2" t="n">
         <v>207742.289289327</v>
@@ -26332,16 +26332,16 @@
         <v>225786.4867126779</v>
       </c>
       <c r="I2" t="n">
-        <v>225786.4867126779</v>
+        <v>225786.4867126778</v>
       </c>
       <c r="J2" t="n">
-        <v>225786.4867126779</v>
+        <v>225786.4867126778</v>
       </c>
       <c r="K2" t="n">
-        <v>225786.486712678</v>
+        <v>225786.4867126778</v>
       </c>
       <c r="L2" t="n">
-        <v>225786.4867126779</v>
+        <v>225786.4867126778</v>
       </c>
       <c r="M2" t="n">
         <v>225786.4867126779</v>
@@ -26350,7 +26350,7 @@
         <v>225786.4867126779</v>
       </c>
       <c r="O2" t="n">
-        <v>225786.4867126778</v>
+        <v>225786.4867126779</v>
       </c>
       <c r="P2" t="n">
         <v>225786.4867126779</v>
@@ -26369,37 +26369,37 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>178636.7950430973</v>
+        <v>178636.7950430969</v>
       </c>
       <c r="E3" t="n">
-        <v>716956.9442962975</v>
+        <v>716956.9442962979</v>
       </c>
       <c r="F3" t="n">
-        <v>266031.7208775262</v>
+        <v>266031.7208775261</v>
       </c>
       <c r="G3" t="n">
-        <v>44886.23236414318</v>
+        <v>44886.23236414316</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1.741016149026109e-10</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>39243.70206893017</v>
+        <v>39243.70206893008</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>44886.23236414323</v>
+        <v>44886.23236414317</v>
       </c>
       <c r="M3" t="n">
         <v>131904.8093616053</v>
       </c>
       <c r="N3" t="n">
-        <v>69946.04093348082</v>
+        <v>69946.04093348079</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26421,43 +26421,43 @@
         <v>467615.9599317312</v>
       </c>
       <c r="D4" t="n">
-        <v>394913.3853753743</v>
+        <v>394913.3853753745</v>
       </c>
       <c r="E4" t="n">
-        <v>76483.98047465982</v>
+        <v>76483.98047465979</v>
       </c>
       <c r="F4" t="n">
-        <v>56665.34341111055</v>
+        <v>56665.34341111056</v>
       </c>
       <c r="G4" t="n">
-        <v>93774.13782657699</v>
+        <v>93774.13782657695</v>
       </c>
       <c r="H4" t="n">
-        <v>93774.13782657697</v>
+        <v>93774.13782657692</v>
       </c>
       <c r="I4" t="n">
         <v>93774.137826577</v>
       </c>
       <c r="J4" t="n">
-        <v>94694.05463332689</v>
+        <v>94694.05463332687</v>
       </c>
       <c r="K4" t="n">
-        <v>94694.05463332683</v>
+        <v>94694.05463332686</v>
       </c>
       <c r="L4" t="n">
-        <v>94694.05463332692</v>
+        <v>94694.05463332681</v>
       </c>
       <c r="M4" t="n">
-        <v>93774.13782657702</v>
+        <v>93774.13782657695</v>
       </c>
       <c r="N4" t="n">
-        <v>93774.137826577</v>
+        <v>93774.13782657695</v>
       </c>
       <c r="O4" t="n">
-        <v>93774.13782657699</v>
+        <v>93774.13782657695</v>
       </c>
       <c r="P4" t="n">
-        <v>93774.13782657697</v>
+        <v>93774.13782657695</v>
       </c>
     </row>
     <row r="5">
@@ -26473,10 +26473,10 @@
         <v>33627.6</v>
       </c>
       <c r="D5" t="n">
-        <v>38174.79578607954</v>
+        <v>38174.79578607953</v>
       </c>
       <c r="E5" t="n">
-        <v>55358.17228974951</v>
+        <v>55358.17228974952</v>
       </c>
       <c r="F5" t="n">
         <v>77801.67147047342</v>
@@ -26485,25 +26485,25 @@
         <v>82518.59730624985</v>
       </c>
       <c r="H5" t="n">
-        <v>82518.59730624985</v>
+        <v>82518.59730624987</v>
       </c>
       <c r="I5" t="n">
-        <v>82518.59730624985</v>
+        <v>82518.59730624987</v>
       </c>
       <c r="J5" t="n">
-        <v>88142.59298517082</v>
+        <v>88142.59298517081</v>
       </c>
       <c r="K5" t="n">
         <v>88142.59298517081</v>
       </c>
       <c r="L5" t="n">
-        <v>88142.59298517082</v>
+        <v>88142.59298517081</v>
       </c>
       <c r="M5" t="n">
-        <v>82518.59730624987</v>
+        <v>82518.59730624985</v>
       </c>
       <c r="N5" t="n">
-        <v>82518.59730624987</v>
+        <v>82518.59730624985</v>
       </c>
       <c r="O5" t="n">
         <v>82518.59730624985</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-275942.5667845457</v>
+        <v>-275946.9803624138</v>
       </c>
       <c r="C6" t="n">
-        <v>-275942.5667845456</v>
+        <v>-275946.9803624137</v>
       </c>
       <c r="D6" t="n">
-        <v>-386405.6274046511</v>
+        <v>-386409.8741129488</v>
       </c>
       <c r="E6" t="n">
-        <v>-669887.6221953231</v>
+        <v>-670313.7586666625</v>
       </c>
       <c r="F6" t="n">
-        <v>-192756.4464697831</v>
+        <v>-192920.4846281772</v>
       </c>
       <c r="G6" t="n">
-        <v>4607.519215707813</v>
+        <v>4607.519215707885</v>
       </c>
       <c r="H6" t="n">
+        <v>49493.75157985094</v>
+      </c>
+      <c r="I6" t="n">
+        <v>49493.75157985114</v>
+      </c>
+      <c r="J6" t="n">
+        <v>3706.137025250078</v>
+      </c>
+      <c r="K6" t="n">
+        <v>42949.83909418012</v>
+      </c>
+      <c r="L6" t="n">
+        <v>-1936.393269962995</v>
+      </c>
+      <c r="M6" t="n">
+        <v>-82411.05778175419</v>
+      </c>
+      <c r="N6" t="n">
+        <v>-20452.28935362971</v>
+      </c>
+      <c r="O6" t="n">
         <v>49493.75157985107</v>
       </c>
-      <c r="I6" t="n">
-        <v>49493.75157985101</v>
-      </c>
-      <c r="J6" t="n">
-        <v>3706.13702525002</v>
-      </c>
-      <c r="K6" t="n">
-        <v>42949.83909418032</v>
-      </c>
-      <c r="L6" t="n">
-        <v>-1936.393269963111</v>
-      </c>
-      <c r="M6" t="n">
-        <v>-82411.05778175428</v>
-      </c>
-      <c r="N6" t="n">
-        <v>-20452.28935362984</v>
-      </c>
-      <c r="O6" t="n">
-        <v>49493.75157985101</v>
-      </c>
       <c r="P6" t="n">
-        <v>49493.75157985104</v>
+        <v>49493.75157985107</v>
       </c>
     </row>
   </sheetData>
@@ -26698,34 +26698,34 @@
         <v>41.57692977292594</v>
       </c>
       <c r="G2" t="n">
-        <v>97.68472022810492</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="H2" t="n">
-        <v>97.68472022810492</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="I2" t="n">
-        <v>97.68472022810492</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="J2" t="n">
-        <v>56.10779045517898</v>
+        <v>56.10779045517894</v>
       </c>
       <c r="K2" t="n">
-        <v>56.10779045517898</v>
+        <v>56.10779045517894</v>
       </c>
       <c r="L2" t="n">
-        <v>56.10779045517904</v>
+        <v>56.10779045517895</v>
       </c>
       <c r="M2" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="N2" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="O2" t="n">
-        <v>97.68472022810492</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="P2" t="n">
-        <v>97.68472022810492</v>
+        <v>97.68472022810489</v>
       </c>
     </row>
     <row r="3">
@@ -26741,7 +26741,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>208.5869626641989</v>
+        <v>208.5869626641985</v>
       </c>
       <c r="E3" t="n">
         <v>856.7359786149259</v>
@@ -26753,7 +26753,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="H3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="I3" t="n">
         <v>1089.776700593298</v>
@@ -26796,7 +26796,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>545.8223198497371</v>
+        <v>545.8223198497373</v>
       </c>
       <c r="F4" t="n">
         <v>831.4014554022929</v>
@@ -26805,19 +26805,19 @@
         <v>831.4014554022929</v>
       </c>
       <c r="H4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="I4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="J4" t="n">
-        <v>981.3903795470475</v>
+        <v>981.3903795470474</v>
       </c>
       <c r="K4" t="n">
-        <v>981.3903795470472</v>
+        <v>981.3903795470474</v>
       </c>
       <c r="L4" t="n">
-        <v>981.3903795470472</v>
+        <v>981.3903795470474</v>
       </c>
       <c r="M4" t="n">
         <v>831.4014554022929</v>
@@ -26826,7 +26826,7 @@
         <v>831.4014554022929</v>
       </c>
       <c r="O4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="P4" t="n">
         <v>831.4014554022929</v>
@@ -26920,7 +26920,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>56.10779045517898</v>
+        <v>56.10779045517895</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26935,10 +26935,10 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>56.10779045517904</v>
+        <v>56.10779045517896</v>
       </c>
       <c r="M2" t="n">
-        <v>41.57692977292591</v>
+        <v>41.57692977292594</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26963,10 +26963,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>208.5869626641989</v>
+        <v>208.5869626641985</v>
       </c>
       <c r="E3" t="n">
-        <v>648.1490159507269</v>
+        <v>648.1490159507274</v>
       </c>
       <c r="F3" t="n">
         <v>233.0407219783724</v>
@@ -26975,7 +26975,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27018,10 +27018,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>545.8223198497371</v>
+        <v>545.8223198497373</v>
       </c>
       <c r="F4" t="n">
-        <v>285.5791355525557</v>
+        <v>285.5791355525556</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>149.9889241447546</v>
+        <v>149.9889241447543</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27045,7 +27045,7 @@
         <v>395.8333957049828</v>
       </c>
       <c r="N4" t="n">
-        <v>285.5791355525557</v>
+        <v>285.5791355525556</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27157,7 +27157,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>56.10779045517898</v>
+        <v>56.10779045517895</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27264,10 +27264,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>545.8223198497371</v>
+        <v>545.8223198497373</v>
       </c>
       <c r="N4" t="n">
-        <v>285.5791355525557</v>
+        <v>285.5791355525556</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27871,34 +27871,34 @@
         <v>330.8870986730145</v>
       </c>
       <c r="I8" t="n">
-        <v>178.1480548845304</v>
+        <v>178.1480548845305</v>
       </c>
       <c r="J8" t="n">
-        <v>109.8758232305232</v>
+        <v>109.8758232305234</v>
       </c>
       <c r="K8" t="n">
-        <v>113.4243481223832</v>
+        <v>113.4243481223834</v>
       </c>
       <c r="L8" t="n">
-        <v>103.4384265855427</v>
+        <v>103.438426585543</v>
       </c>
       <c r="M8" t="n">
-        <v>83.10584927587567</v>
+        <v>83.10584927587595</v>
       </c>
       <c r="N8" t="n">
-        <v>79.79017629777812</v>
+        <v>79.79017629777843</v>
       </c>
       <c r="O8" t="n">
-        <v>88.81356175098301</v>
+        <v>88.8135617509833</v>
       </c>
       <c r="P8" t="n">
-        <v>110.6498159972187</v>
+        <v>110.649815997219</v>
       </c>
       <c r="Q8" t="n">
-        <v>131.7527436858927</v>
+        <v>131.7527436858928</v>
       </c>
       <c r="R8" t="n">
-        <v>162.9115647751171</v>
+        <v>162.9115647751172</v>
       </c>
       <c r="S8" t="n">
         <v>189.9118267250979</v>
@@ -27950,34 +27950,34 @@
         <v>107.9023452573779</v>
       </c>
       <c r="I9" t="n">
-        <v>84.07513795364187</v>
+        <v>84.0751379536419</v>
       </c>
       <c r="J9" t="n">
-        <v>84.44921381053923</v>
+        <v>84.44921381053933</v>
       </c>
       <c r="K9" t="n">
-        <v>65.39288987617208</v>
+        <v>65.39288987617222</v>
       </c>
       <c r="L9" t="n">
-        <v>41.13836481108956</v>
+        <v>41.13836481108976</v>
       </c>
       <c r="M9" t="n">
-        <v>28.4541392700299</v>
+        <v>28.45413927003014</v>
       </c>
       <c r="N9" t="n">
-        <v>14.65304888499053</v>
+        <v>14.65304888499077</v>
       </c>
       <c r="O9" t="n">
-        <v>35.84891459873877</v>
+        <v>35.84891459873899</v>
       </c>
       <c r="P9" t="n">
-        <v>48.30026420231236</v>
+        <v>48.30026420231255</v>
       </c>
       <c r="Q9" t="n">
-        <v>82.71087822395693</v>
+        <v>82.71087822395704</v>
       </c>
       <c r="R9" t="n">
-        <v>117.8233054406205</v>
+        <v>117.8233054406206</v>
       </c>
       <c r="S9" t="n">
         <v>163.3495316049427</v>
@@ -28032,31 +28032,31 @@
         <v>144.1389065257309</v>
       </c>
       <c r="J10" t="n">
-        <v>100.4022934289129</v>
+        <v>100.402293428913</v>
       </c>
       <c r="K10" t="n">
-        <v>85.31257976318355</v>
+        <v>85.31257976318363</v>
       </c>
       <c r="L10" t="n">
-        <v>78.96285353680697</v>
+        <v>78.96285353680709</v>
       </c>
       <c r="M10" t="n">
-        <v>79.96406268172339</v>
+        <v>79.9640626817235</v>
       </c>
       <c r="N10" t="n">
-        <v>70.12580114512724</v>
+        <v>70.12580114512735</v>
       </c>
       <c r="O10" t="n">
-        <v>85.29079918130236</v>
+        <v>85.29079918130248</v>
       </c>
       <c r="P10" t="n">
-        <v>92.23552943792629</v>
+        <v>92.23552943792637</v>
       </c>
       <c r="Q10" t="n">
-        <v>120.0083702671518</v>
+        <v>120.0083702671519</v>
       </c>
       <c r="R10" t="n">
-        <v>160.3807501093477</v>
+        <v>160.3807501093478</v>
       </c>
       <c r="S10" t="n">
         <v>217.4614962758695</v>
@@ -28187,25 +28187,25 @@
         <v>41.57692977292594</v>
       </c>
       <c r="I12" t="n">
+        <v>36.7381134932944</v>
+      </c>
+      <c r="J12" t="n">
         <v>41.57692977292594</v>
       </c>
-      <c r="J12" t="n">
-        <v>0</v>
-      </c>
       <c r="K12" t="n">
-        <v>36.73811349329421</v>
+        <v>41.57692977292594</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>41.57692977292594</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>41.57692977292594</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>41.57692977292594</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>41.57692977292594</v>
@@ -28424,7 +28424,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>2.167155344068306e-13</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -28561,25 +28561,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>97.68472022810492</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="C17" t="n">
-        <v>97.68472022810492</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="D17" t="n">
-        <v>97.68472022810492</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="E17" t="n">
-        <v>97.68472022810492</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="F17" t="n">
-        <v>97.68472022810492</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="G17" t="n">
-        <v>97.68472022810492</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="H17" t="n">
-        <v>97.68472022810492</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="I17" t="n">
         <v>41.57692977292595</v>
@@ -28612,25 +28612,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>97.68472022810492</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="T17" t="n">
-        <v>97.68472022810492</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="U17" t="n">
-        <v>97.68472022810492</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="V17" t="n">
-        <v>97.68472022810492</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="W17" t="n">
-        <v>97.68472022810492</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="X17" t="n">
-        <v>97.68472022810492</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="Y17" t="n">
-        <v>97.68472022810492</v>
+        <v>97.68472022810489</v>
       </c>
     </row>
     <row r="18">
@@ -28661,7 +28661,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>2.167155344068306e-13</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -28719,76 +28719,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>97.68472022810492</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="C19" t="n">
-        <v>97.68472022810492</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="D19" t="n">
-        <v>97.68472022810492</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="E19" t="n">
-        <v>97.68472022810492</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="F19" t="n">
-        <v>97.68472022810492</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="G19" t="n">
-        <v>97.68472022810492</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="H19" t="n">
-        <v>97.68472022810492</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="I19" t="n">
-        <v>97.68472022810492</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J19" t="n">
-        <v>97.68472022810492</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>86.41330088048528</v>
       </c>
       <c r="L19" t="n">
-        <v>97.68472022810492</v>
+        <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>97.68472022810492</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="N19" t="n">
-        <v>97.68472022810492</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="O19" t="n">
-        <v>0</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="P19" t="n">
-        <v>85.08100106221781</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="Q19" t="n">
-        <v>97.68472022810492</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="R19" t="n">
         <v>88.93215267004733</v>
       </c>
       <c r="S19" t="n">
-        <v>97.68472022810492</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="T19" t="n">
-        <v>97.68472022810492</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="U19" t="n">
-        <v>97.68472022810492</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="V19" t="n">
-        <v>97.68472022810492</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="W19" t="n">
-        <v>97.68472022810492</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="X19" t="n">
-        <v>97.68472022810492</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="Y19" t="n">
-        <v>97.68472022810492</v>
+        <v>97.68472022810489</v>
       </c>
     </row>
     <row r="20">
@@ -28798,28 +28798,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>97.68472022810492</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="C20" t="n">
-        <v>97.68472022810492</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="D20" t="n">
-        <v>97.68472022810492</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="E20" t="n">
-        <v>97.68472022810492</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="F20" t="n">
-        <v>97.68472022810492</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="G20" t="n">
-        <v>97.68472022810492</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="H20" t="n">
-        <v>97.68472022810492</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -28849,25 +28849,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>97.68472022810492</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="T20" t="n">
-        <v>97.68472022810492</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="U20" t="n">
-        <v>97.68472022810492</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="V20" t="n">
-        <v>97.68472022810492</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="W20" t="n">
-        <v>97.68472022810492</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="X20" t="n">
-        <v>97.68472022810492</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="Y20" t="n">
-        <v>97.68472022810492</v>
+        <v>97.68472022810488</v>
       </c>
     </row>
     <row r="21">
@@ -28925,7 +28925,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>-9.481304630298837e-13</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -28956,76 +28956,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>97.68472022810492</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="C22" t="n">
-        <v>97.68472022810492</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="D22" t="n">
-        <v>97.68472022810492</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="E22" t="n">
-        <v>97.68472022810492</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="F22" t="n">
-        <v>97.68472022810492</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="G22" t="n">
-        <v>97.68472022810492</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="H22" t="n">
-        <v>97.68472022810492</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="I22" t="n">
         <v>96.35242040983809</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="K22" t="n">
-        <v>97.68472022810492</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="L22" t="n">
-        <v>97.68472022810492</v>
+        <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>97.68472022810492</v>
+        <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>97.68472022810492</v>
+        <v>86.41330088048534</v>
       </c>
       <c r="O22" t="n">
-        <v>97.68472022810492</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="P22" t="n">
-        <v>0</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="Q22" t="n">
-        <v>77.66073332242719</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="R22" t="n">
-        <v>97.68472022810492</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S22" t="n">
-        <v>97.68472022810492</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="T22" t="n">
-        <v>97.68472022810492</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="U22" t="n">
-        <v>97.68472022810492</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="V22" t="n">
-        <v>97.68472022810492</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="W22" t="n">
-        <v>97.68472022810492</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="X22" t="n">
-        <v>97.68472022810492</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="Y22" t="n">
-        <v>97.68472022810492</v>
+        <v>97.68472022810488</v>
       </c>
     </row>
     <row r="23">
@@ -29035,25 +29035,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>97.68472022810492</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="C23" t="n">
-        <v>97.68472022810492</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="D23" t="n">
-        <v>97.68472022810492</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="E23" t="n">
-        <v>97.68472022810492</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="F23" t="n">
-        <v>97.68472022810492</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="G23" t="n">
-        <v>97.68472022810492</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="H23" t="n">
-        <v>97.68472022810492</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="I23" t="n">
         <v>41.57692977292595</v>
@@ -29074,7 +29074,7 @@
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
@@ -29086,25 +29086,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>97.68472022810492</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="T23" t="n">
-        <v>97.68472022810492</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="U23" t="n">
-        <v>97.68472022810492</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="V23" t="n">
-        <v>97.68472022810492</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="W23" t="n">
-        <v>97.68472022810492</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="X23" t="n">
-        <v>97.68472022810492</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="Y23" t="n">
-        <v>97.68472022810492</v>
+        <v>97.68472022810488</v>
       </c>
     </row>
     <row r="24">
@@ -29180,7 +29180,7 @@
         <v>0</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>-2.273736754432321e-13</v>
       </c>
       <c r="Y24" t="n">
         <v>0</v>
@@ -29193,37 +29193,37 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>97.68472022810492</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="C25" t="n">
-        <v>97.68472022810492</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="D25" t="n">
-        <v>97.68472022810492</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="E25" t="n">
-        <v>97.68472022810492</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="F25" t="n">
-        <v>97.68472022810492</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="G25" t="n">
-        <v>97.68472022810492</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="H25" t="n">
-        <v>97.68472022810492</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="I25" t="n">
-        <v>97.68472022810492</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J25" t="n">
-        <v>97.68472022810492</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="K25" t="n">
-        <v>97.68472022810492</v>
+        <v>86.41330088048571</v>
       </c>
       <c r="L25" t="n">
-        <v>97.68472022810492</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="M25" t="n">
         <v>0</v>
@@ -29232,37 +29232,37 @@
         <v>0</v>
       </c>
       <c r="O25" t="n">
-        <v>97.68472022810492</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="P25" t="n">
-        <v>97.68472022810492</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="Q25" t="n">
-        <v>76.32843350416019</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="R25" t="n">
-        <v>97.68472022810492</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S25" t="n">
-        <v>97.68472022810492</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="T25" t="n">
-        <v>97.68472022810492</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="U25" t="n">
-        <v>97.68472022810492</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="V25" t="n">
-        <v>97.68472022810492</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="W25" t="n">
-        <v>97.68472022810492</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="X25" t="n">
-        <v>97.68472022810492</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="Y25" t="n">
-        <v>97.68472022810492</v>
+        <v>97.68472022810488</v>
       </c>
     </row>
     <row r="26">
@@ -29272,76 +29272,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>56.10779045517898</v>
+        <v>56.10779045517894</v>
       </c>
       <c r="C26" t="n">
-        <v>56.10779045517898</v>
+        <v>56.10779045517894</v>
       </c>
       <c r="D26" t="n">
-        <v>56.10779045517898</v>
+        <v>56.10779045517894</v>
       </c>
       <c r="E26" t="n">
-        <v>56.10779045517898</v>
+        <v>56.10779045517894</v>
       </c>
       <c r="F26" t="n">
-        <v>56.10779045517898</v>
+        <v>56.10779045517894</v>
       </c>
       <c r="G26" t="n">
-        <v>56.10779045517898</v>
+        <v>56.10779045517894</v>
       </c>
       <c r="H26" t="n">
-        <v>56.10779045517898</v>
+        <v>56.10779045517894</v>
       </c>
       <c r="I26" t="n">
-        <v>56.10779045517898</v>
+        <v>56.10779045517894</v>
       </c>
       <c r="J26" t="n">
-        <v>56.10779045517898</v>
+        <v>56.10779045517894</v>
       </c>
       <c r="K26" t="n">
-        <v>56.10779045517898</v>
+        <v>56.10779045517894</v>
       </c>
       <c r="L26" t="n">
-        <v>56.10779045517898</v>
+        <v>56.10779045517894</v>
       </c>
       <c r="M26" t="n">
-        <v>56.10779045517898</v>
+        <v>56.10779045517894</v>
       </c>
       <c r="N26" t="n">
-        <v>56.10779045517898</v>
+        <v>56.10779045517894</v>
       </c>
       <c r="O26" t="n">
-        <v>56.10779045517898</v>
+        <v>56.10779045517894</v>
       </c>
       <c r="P26" t="n">
-        <v>56.10779045517898</v>
+        <v>56.10779045517894</v>
       </c>
       <c r="Q26" t="n">
-        <v>56.10779045517898</v>
+        <v>56.10779045517894</v>
       </c>
       <c r="R26" t="n">
-        <v>56.10779045517898</v>
+        <v>56.10779045517894</v>
       </c>
       <c r="S26" t="n">
-        <v>56.10779045517898</v>
+        <v>56.10779045517894</v>
       </c>
       <c r="T26" t="n">
-        <v>56.10779045517898</v>
+        <v>56.10779045517894</v>
       </c>
       <c r="U26" t="n">
-        <v>56.10779045517898</v>
+        <v>56.10779045517894</v>
       </c>
       <c r="V26" t="n">
-        <v>56.10779045517898</v>
+        <v>56.10779045517894</v>
       </c>
       <c r="W26" t="n">
-        <v>56.10779045517898</v>
+        <v>56.10779045517894</v>
       </c>
       <c r="X26" t="n">
-        <v>56.10779045517898</v>
+        <v>56.10779045517894</v>
       </c>
       <c r="Y26" t="n">
-        <v>56.10779045517898</v>
+        <v>56.10779045517894</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>56.10779045517898</v>
+        <v>56.10779045517894</v>
       </c>
       <c r="C28" t="n">
-        <v>56.10779045517898</v>
+        <v>56.10779045517894</v>
       </c>
       <c r="D28" t="n">
-        <v>56.10779045517898</v>
+        <v>56.10779045517894</v>
       </c>
       <c r="E28" t="n">
-        <v>56.10779045517898</v>
+        <v>56.10779045517894</v>
       </c>
       <c r="F28" t="n">
-        <v>56.10779045517898</v>
+        <v>56.10779045517894</v>
       </c>
       <c r="G28" t="n">
-        <v>56.10779045517898</v>
+        <v>56.10779045517894</v>
       </c>
       <c r="H28" t="n">
-        <v>56.10779045517898</v>
+        <v>56.10779045517894</v>
       </c>
       <c r="I28" t="n">
-        <v>56.10779045517898</v>
+        <v>56.10779045517894</v>
       </c>
       <c r="J28" t="n">
-        <v>56.10779045517898</v>
+        <v>56.10779045517894</v>
       </c>
       <c r="K28" t="n">
-        <v>56.10779045517898</v>
+        <v>56.10779045517894</v>
       </c>
       <c r="L28" t="n">
-        <v>56.10779045517898</v>
+        <v>56.10779045517894</v>
       </c>
       <c r="M28" t="n">
-        <v>56.10779045517898</v>
+        <v>56.10779045517894</v>
       </c>
       <c r="N28" t="n">
-        <v>56.10779045517898</v>
+        <v>56.10779045517894</v>
       </c>
       <c r="O28" t="n">
-        <v>56.10779045517898</v>
+        <v>56.10779045517894</v>
       </c>
       <c r="P28" t="n">
-        <v>56.10779045517898</v>
+        <v>56.10779045517894</v>
       </c>
       <c r="Q28" t="n">
-        <v>56.10779045517898</v>
+        <v>56.10779045517894</v>
       </c>
       <c r="R28" t="n">
-        <v>56.10779045517898</v>
+        <v>56.10779045517894</v>
       </c>
       <c r="S28" t="n">
-        <v>56.10779045517898</v>
+        <v>56.10779045517894</v>
       </c>
       <c r="T28" t="n">
-        <v>56.10779045517898</v>
+        <v>56.10779045517894</v>
       </c>
       <c r="U28" t="n">
-        <v>56.10779045517898</v>
+        <v>56.10779045517894</v>
       </c>
       <c r="V28" t="n">
-        <v>56.10779045517898</v>
+        <v>56.10779045517894</v>
       </c>
       <c r="W28" t="n">
-        <v>56.10779045517898</v>
+        <v>56.10779045517894</v>
       </c>
       <c r="X28" t="n">
-        <v>56.10779045517898</v>
+        <v>56.10779045517894</v>
       </c>
       <c r="Y28" t="n">
-        <v>56.10779045517898</v>
+        <v>56.10779045517894</v>
       </c>
     </row>
     <row r="29">
@@ -29509,76 +29509,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>56.10779045517898</v>
+        <v>56.10779045517894</v>
       </c>
       <c r="C29" t="n">
-        <v>56.10779045517898</v>
+        <v>56.10779045517894</v>
       </c>
       <c r="D29" t="n">
-        <v>56.10779045517898</v>
+        <v>56.10779045517894</v>
       </c>
       <c r="E29" t="n">
-        <v>56.10779045517898</v>
+        <v>56.10779045517894</v>
       </c>
       <c r="F29" t="n">
-        <v>56.10779045517898</v>
+        <v>56.10779045517894</v>
       </c>
       <c r="G29" t="n">
-        <v>56.10779045517898</v>
+        <v>56.10779045517894</v>
       </c>
       <c r="H29" t="n">
-        <v>56.10779045517898</v>
+        <v>56.10779045517894</v>
       </c>
       <c r="I29" t="n">
-        <v>56.10779045517898</v>
+        <v>56.10779045517894</v>
       </c>
       <c r="J29" t="n">
-        <v>56.10779045517898</v>
+        <v>56.10779045517894</v>
       </c>
       <c r="K29" t="n">
-        <v>56.10779045517898</v>
+        <v>56.10779045517894</v>
       </c>
       <c r="L29" t="n">
-        <v>56.10779045517898</v>
+        <v>56.10779045517894</v>
       </c>
       <c r="M29" t="n">
-        <v>56.10779045517898</v>
+        <v>56.10779045517894</v>
       </c>
       <c r="N29" t="n">
-        <v>56.10779045517898</v>
+        <v>56.10779045517894</v>
       </c>
       <c r="O29" t="n">
-        <v>56.10779045517898</v>
+        <v>56.10779045517894</v>
       </c>
       <c r="P29" t="n">
-        <v>56.10779045517898</v>
+        <v>56.10779045517894</v>
       </c>
       <c r="Q29" t="n">
-        <v>56.10779045517898</v>
+        <v>56.10779045517894</v>
       </c>
       <c r="R29" t="n">
-        <v>56.10779045517898</v>
+        <v>56.10779045517894</v>
       </c>
       <c r="S29" t="n">
-        <v>56.10779045517898</v>
+        <v>56.10779045517894</v>
       </c>
       <c r="T29" t="n">
-        <v>56.10779045517898</v>
+        <v>56.10779045517894</v>
       </c>
       <c r="U29" t="n">
-        <v>56.10779045517898</v>
+        <v>56.10779045517894</v>
       </c>
       <c r="V29" t="n">
-        <v>56.10779045517898</v>
+        <v>56.10779045517894</v>
       </c>
       <c r="W29" t="n">
-        <v>56.10779045517898</v>
+        <v>56.10779045517894</v>
       </c>
       <c r="X29" t="n">
-        <v>56.10779045517898</v>
+        <v>56.10779045517894</v>
       </c>
       <c r="Y29" t="n">
-        <v>56.10779045517898</v>
+        <v>56.10779045517894</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>56.10779045517898</v>
+        <v>56.10779045517894</v>
       </c>
       <c r="C31" t="n">
-        <v>56.10779045517898</v>
+        <v>56.10779045517894</v>
       </c>
       <c r="D31" t="n">
-        <v>56.10779045517898</v>
+        <v>56.10779045517894</v>
       </c>
       <c r="E31" t="n">
-        <v>56.10779045517898</v>
+        <v>56.10779045517894</v>
       </c>
       <c r="F31" t="n">
-        <v>56.10779045517898</v>
+        <v>56.10779045517894</v>
       </c>
       <c r="G31" t="n">
-        <v>56.10779045517898</v>
+        <v>56.10779045517894</v>
       </c>
       <c r="H31" t="n">
-        <v>56.10779045517898</v>
+        <v>56.10779045517894</v>
       </c>
       <c r="I31" t="n">
-        <v>56.10779045517898</v>
+        <v>56.10779045517894</v>
       </c>
       <c r="J31" t="n">
-        <v>56.10779045517898</v>
+        <v>56.10779045517894</v>
       </c>
       <c r="K31" t="n">
-        <v>56.10779045517898</v>
+        <v>56.10779045517894</v>
       </c>
       <c r="L31" t="n">
-        <v>56.10779045517898</v>
+        <v>56.10779045517894</v>
       </c>
       <c r="M31" t="n">
-        <v>56.10779045517898</v>
+        <v>56.10779045517894</v>
       </c>
       <c r="N31" t="n">
-        <v>56.10779045517898</v>
+        <v>56.10779045517894</v>
       </c>
       <c r="O31" t="n">
-        <v>56.10779045517898</v>
+        <v>56.10779045517894</v>
       </c>
       <c r="P31" t="n">
-        <v>56.10779045517898</v>
+        <v>56.10779045517894</v>
       </c>
       <c r="Q31" t="n">
-        <v>56.10779045517898</v>
+        <v>56.10779045517894</v>
       </c>
       <c r="R31" t="n">
-        <v>56.10779045517898</v>
+        <v>56.10779045517894</v>
       </c>
       <c r="S31" t="n">
-        <v>56.10779045517898</v>
+        <v>56.10779045517894</v>
       </c>
       <c r="T31" t="n">
-        <v>56.10779045517898</v>
+        <v>56.10779045517894</v>
       </c>
       <c r="U31" t="n">
-        <v>56.10779045517898</v>
+        <v>56.10779045517894</v>
       </c>
       <c r="V31" t="n">
-        <v>56.10779045517898</v>
+        <v>56.10779045517894</v>
       </c>
       <c r="W31" t="n">
-        <v>56.10779045517898</v>
+        <v>56.10779045517894</v>
       </c>
       <c r="X31" t="n">
-        <v>56.10779045517898</v>
+        <v>56.10779045517894</v>
       </c>
       <c r="Y31" t="n">
-        <v>56.10779045517898</v>
+        <v>56.10779045517894</v>
       </c>
     </row>
     <row r="32">
@@ -29746,76 +29746,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>56.10779045517904</v>
+        <v>56.10779045517895</v>
       </c>
       <c r="C32" t="n">
-        <v>56.10779045517904</v>
+        <v>56.10779045517895</v>
       </c>
       <c r="D32" t="n">
-        <v>56.10779045517904</v>
+        <v>56.10779045517895</v>
       </c>
       <c r="E32" t="n">
-        <v>56.10779045517904</v>
+        <v>56.10779045517895</v>
       </c>
       <c r="F32" t="n">
-        <v>56.10779045517904</v>
+        <v>56.10779045517895</v>
       </c>
       <c r="G32" t="n">
-        <v>56.10779045517904</v>
+        <v>56.10779045517895</v>
       </c>
       <c r="H32" t="n">
-        <v>56.10779045517904</v>
+        <v>56.10779045517895</v>
       </c>
       <c r="I32" t="n">
-        <v>56.10779045517904</v>
+        <v>56.10779045517895</v>
       </c>
       <c r="J32" t="n">
-        <v>56.10779045517904</v>
+        <v>56.10779045517895</v>
       </c>
       <c r="K32" t="n">
-        <v>56.10779045517904</v>
+        <v>56.10779045517895</v>
       </c>
       <c r="L32" t="n">
-        <v>56.10779045517904</v>
+        <v>56.10779045517895</v>
       </c>
       <c r="M32" t="n">
-        <v>56.10779045517904</v>
+        <v>56.10779045517895</v>
       </c>
       <c r="N32" t="n">
-        <v>56.10779045517904</v>
+        <v>56.10779045517895</v>
       </c>
       <c r="O32" t="n">
-        <v>56.10779045517904</v>
+        <v>56.10779045517895</v>
       </c>
       <c r="P32" t="n">
-        <v>56.10779045517904</v>
+        <v>56.10779045517895</v>
       </c>
       <c r="Q32" t="n">
-        <v>56.10779045517904</v>
+        <v>56.10779045517895</v>
       </c>
       <c r="R32" t="n">
-        <v>56.10779045517904</v>
+        <v>56.10779045517895</v>
       </c>
       <c r="S32" t="n">
-        <v>56.10779045517904</v>
+        <v>56.10779045517895</v>
       </c>
       <c r="T32" t="n">
-        <v>56.10779045517904</v>
+        <v>56.10779045517895</v>
       </c>
       <c r="U32" t="n">
-        <v>56.10779045517904</v>
+        <v>56.10779045517895</v>
       </c>
       <c r="V32" t="n">
-        <v>56.10779045517904</v>
+        <v>56.10779045517895</v>
       </c>
       <c r="W32" t="n">
-        <v>56.10779045517904</v>
+        <v>56.10779045517895</v>
       </c>
       <c r="X32" t="n">
-        <v>56.10779045517904</v>
+        <v>56.10779045517895</v>
       </c>
       <c r="Y32" t="n">
-        <v>56.10779045517904</v>
+        <v>56.10779045517895</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>56.10779045517904</v>
+        <v>56.10779045517895</v>
       </c>
       <c r="C34" t="n">
-        <v>56.10779045517904</v>
+        <v>56.10779045517895</v>
       </c>
       <c r="D34" t="n">
-        <v>56.10779045517904</v>
+        <v>56.10779045517895</v>
       </c>
       <c r="E34" t="n">
-        <v>56.10779045517904</v>
+        <v>56.10779045517895</v>
       </c>
       <c r="F34" t="n">
-        <v>56.10779045517904</v>
+        <v>56.10779045517895</v>
       </c>
       <c r="G34" t="n">
-        <v>56.10779045517904</v>
+        <v>56.10779045517895</v>
       </c>
       <c r="H34" t="n">
-        <v>56.10779045517904</v>
+        <v>56.10779045517895</v>
       </c>
       <c r="I34" t="n">
-        <v>56.10779045517904</v>
+        <v>56.10779045517895</v>
       </c>
       <c r="J34" t="n">
-        <v>56.10779045517904</v>
+        <v>56.10779045517895</v>
       </c>
       <c r="K34" t="n">
-        <v>56.10779045517904</v>
+        <v>56.10779045517895</v>
       </c>
       <c r="L34" t="n">
-        <v>56.10779045517904</v>
+        <v>56.10779045517895</v>
       </c>
       <c r="M34" t="n">
-        <v>56.10779045517904</v>
+        <v>56.10779045517895</v>
       </c>
       <c r="N34" t="n">
-        <v>56.10779045517904</v>
+        <v>56.10779045517895</v>
       </c>
       <c r="O34" t="n">
-        <v>56.10779045517904</v>
+        <v>56.10779045517895</v>
       </c>
       <c r="P34" t="n">
-        <v>56.10779045517904</v>
+        <v>56.10779045517895</v>
       </c>
       <c r="Q34" t="n">
-        <v>56.10779045517904</v>
+        <v>56.10779045517895</v>
       </c>
       <c r="R34" t="n">
-        <v>56.10779045517904</v>
+        <v>56.10779045517895</v>
       </c>
       <c r="S34" t="n">
-        <v>56.10779045517904</v>
+        <v>56.10779045517895</v>
       </c>
       <c r="T34" t="n">
-        <v>56.10779045517904</v>
+        <v>56.10779045517895</v>
       </c>
       <c r="U34" t="n">
-        <v>56.10779045517904</v>
+        <v>56.10779045517895</v>
       </c>
       <c r="V34" t="n">
-        <v>56.10779045517904</v>
+        <v>56.10779045517895</v>
       </c>
       <c r="W34" t="n">
-        <v>56.10779045517904</v>
+        <v>56.10779045517895</v>
       </c>
       <c r="X34" t="n">
-        <v>56.10779045517904</v>
+        <v>56.10779045517895</v>
       </c>
       <c r="Y34" t="n">
-        <v>56.10779045517904</v>
+        <v>56.10779045517895</v>
       </c>
     </row>
     <row r="35">
@@ -29983,25 +29983,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="C35" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="D35" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="E35" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="F35" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="G35" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="H35" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="I35" t="n">
         <v>41.57692977292595</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="T35" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="U35" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="V35" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="W35" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="X35" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="Y35" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810489</v>
       </c>
     </row>
     <row r="36">
@@ -30068,7 +30068,7 @@
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="C37" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="D37" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="E37" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="F37" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="G37" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="H37" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="I37" t="n">
         <v>96.35242040983809</v>
       </c>
       <c r="J37" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="K37" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="L37" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="M37" t="n">
         <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>97.68472022810495</v>
+        <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>0</v>
+        <v>86.41330088048517</v>
       </c>
       <c r="P37" t="n">
-        <v>77.66073332242703</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="Q37" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="R37" t="n">
-        <v>97.68472022810495</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S37" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="T37" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="U37" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="V37" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="W37" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="X37" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="Y37" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810489</v>
       </c>
     </row>
     <row r="38">
@@ -30220,25 +30220,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="C38" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="D38" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="E38" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="F38" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="G38" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="H38" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="I38" t="n">
         <v>41.57692977292595</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="T38" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="U38" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="V38" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="W38" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="X38" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="Y38" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810489</v>
       </c>
     </row>
     <row r="39">
@@ -30314,7 +30314,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="C40" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="D40" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="E40" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="F40" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="G40" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="H40" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="I40" t="n">
         <v>96.35242040983809</v>
       </c>
       <c r="J40" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>77.66073332242706</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="M40" t="n">
-        <v>97.68472022810495</v>
+        <v>86.41330088048525</v>
       </c>
       <c r="N40" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="O40" t="n">
-        <v>0</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="P40" t="n">
-        <v>97.68472022810495</v>
+        <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="R40" t="n">
-        <v>97.68472022810495</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S40" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="T40" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="U40" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="V40" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="W40" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="X40" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="Y40" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810489</v>
       </c>
     </row>
     <row r="41">
@@ -30457,25 +30457,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>97.68472022810492</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="C41" t="n">
-        <v>97.68472022810492</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="D41" t="n">
-        <v>97.68472022810492</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="E41" t="n">
-        <v>97.68472022810492</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="F41" t="n">
-        <v>97.68472022810492</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="G41" t="n">
-        <v>97.68472022810492</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="H41" t="n">
-        <v>97.68472022810492</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="I41" t="n">
         <v>41.57692977292595</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>97.68472022810492</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="T41" t="n">
-        <v>97.68472022810492</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="U41" t="n">
-        <v>97.68472022810492</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="V41" t="n">
-        <v>97.68472022810492</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="W41" t="n">
-        <v>97.68472022810492</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="X41" t="n">
-        <v>97.68472022810492</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="Y41" t="n">
-        <v>97.68472022810492</v>
+        <v>97.68472022810489</v>
       </c>
     </row>
     <row r="42">
@@ -30542,7 +30542,7 @@
         <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
         <v>0</v>
@@ -30557,7 +30557,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>2.167155344068306e-13</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>97.68472022810492</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="C43" t="n">
-        <v>97.68472022810492</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="D43" t="n">
-        <v>97.68472022810492</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="E43" t="n">
-        <v>97.68472022810492</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="F43" t="n">
-        <v>97.68472022810492</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="G43" t="n">
-        <v>97.68472022810492</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="H43" t="n">
-        <v>97.68472022810492</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="I43" t="n">
-        <v>97.68472022810492</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J43" t="n">
-        <v>97.68472022810492</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="K43" t="n">
-        <v>85.08100106221795</v>
+        <v>86.41330088048531</v>
       </c>
       <c r="L43" t="n">
-        <v>97.68472022810492</v>
+        <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>97.68472022810492</v>
+        <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>0</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="O43" t="n">
-        <v>0</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="P43" t="n">
-        <v>97.68472022810492</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="Q43" t="n">
-        <v>97.68472022810492</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="R43" t="n">
         <v>88.93215267004733</v>
       </c>
       <c r="S43" t="n">
-        <v>97.68472022810492</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="T43" t="n">
-        <v>97.68472022810492</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="U43" t="n">
-        <v>97.68472022810492</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="V43" t="n">
-        <v>97.68472022810492</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="W43" t="n">
-        <v>97.68472022810492</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="X43" t="n">
-        <v>97.68472022810492</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="Y43" t="n">
-        <v>97.68472022810492</v>
+        <v>97.68472022810489</v>
       </c>
     </row>
     <row r="44">
@@ -30694,25 +30694,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>97.68472022810492</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="C44" t="n">
-        <v>97.68472022810492</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="D44" t="n">
-        <v>97.68472022810492</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="E44" t="n">
-        <v>97.68472022810492</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="F44" t="n">
-        <v>97.68472022810492</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="G44" t="n">
-        <v>97.68472022810492</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="H44" t="n">
-        <v>97.68472022810492</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="I44" t="n">
         <v>41.57692977292595</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>97.68472022810492</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="T44" t="n">
-        <v>97.68472022810492</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="U44" t="n">
-        <v>97.68472022810492</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="V44" t="n">
-        <v>97.68472022810492</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="W44" t="n">
-        <v>97.68472022810492</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="X44" t="n">
-        <v>97.68472022810492</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="Y44" t="n">
-        <v>97.68472022810492</v>
+        <v>97.68472022810489</v>
       </c>
     </row>
     <row r="45">
@@ -30785,7 +30785,7 @@
         <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>2.557953848736361e-13</v>
       </c>
       <c r="G45" t="n">
         <v>0</v>
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>97.68472022810492</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="C46" t="n">
-        <v>97.68472022810492</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="D46" t="n">
-        <v>97.68472022810492</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="E46" t="n">
-        <v>97.68472022810492</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="F46" t="n">
-        <v>97.68472022810492</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="G46" t="n">
-        <v>97.68472022810492</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="H46" t="n">
-        <v>97.68472022810492</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="I46" t="n">
         <v>96.35242040983809</v>
       </c>
       <c r="J46" t="n">
-        <v>97.68472022810492</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>97.68472022810492</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="M46" t="n">
-        <v>97.68472022810492</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="N46" t="n">
-        <v>77.66073332242723</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="P46" t="n">
-        <v>97.68472022810492</v>
+        <v>86.41330088048505</v>
       </c>
       <c r="Q46" t="n">
-        <v>97.68472022810492</v>
+        <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>97.68472022810492</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S46" t="n">
-        <v>97.68472022810492</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="T46" t="n">
-        <v>97.68472022810492</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="U46" t="n">
-        <v>97.68472022810492</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="V46" t="n">
-        <v>97.68472022810492</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="W46" t="n">
-        <v>97.68472022810492</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="X46" t="n">
-        <v>97.68472022810492</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="Y46" t="n">
-        <v>97.68472022810492</v>
+        <v>97.68472022810489</v>
       </c>
     </row>
   </sheetData>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0.8385405534239148</v>
+        <v>0.838540553423913</v>
       </c>
       <c r="H8" t="n">
-        <v>8.58770344275267</v>
+        <v>8.587703442752652</v>
       </c>
       <c r="I8" t="n">
-        <v>32.3278346858755</v>
+        <v>32.32783468587544</v>
       </c>
       <c r="J8" t="n">
-        <v>71.17008129616305</v>
+        <v>71.17008129616291</v>
       </c>
       <c r="K8" t="n">
-        <v>106.6655029225974</v>
+        <v>106.6655029225972</v>
       </c>
       <c r="L8" t="n">
-        <v>132.3279883844446</v>
+        <v>132.3279883844443</v>
       </c>
       <c r="M8" t="n">
-        <v>147.2403839513971</v>
+        <v>147.2403839513968</v>
       </c>
       <c r="N8" t="n">
-        <v>149.6228872988128</v>
+        <v>149.6228872988125</v>
       </c>
       <c r="O8" t="n">
-        <v>141.2846496707037</v>
+        <v>141.2846496707034</v>
       </c>
       <c r="P8" t="n">
-        <v>120.5831797580508</v>
+        <v>120.5831797580506</v>
       </c>
       <c r="Q8" t="n">
-        <v>90.55294618855683</v>
+        <v>90.55294618855665</v>
       </c>
       <c r="R8" t="n">
-        <v>52.67397303901503</v>
+        <v>52.67397303901492</v>
       </c>
       <c r="S8" t="n">
-        <v>19.10824286114748</v>
+        <v>19.10824286114744</v>
       </c>
       <c r="T8" t="n">
-        <v>3.670711272613189</v>
+        <v>3.670711272613181</v>
       </c>
       <c r="U8" t="n">
-        <v>0.06708324427391317</v>
+        <v>0.06708324427391303</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.4486587498814846</v>
+        <v>0.4486587498814836</v>
       </c>
       <c r="H9" t="n">
-        <v>4.333098979118549</v>
+        <v>4.33309897911854</v>
       </c>
       <c r="I9" t="n">
-        <v>15.44724204635813</v>
+        <v>15.4472420463581</v>
       </c>
       <c r="J9" t="n">
-        <v>42.38841285612746</v>
+        <v>42.38841285612737</v>
       </c>
       <c r="K9" t="n">
-        <v>72.44854909818692</v>
+        <v>72.44854909818677</v>
       </c>
       <c r="L9" t="n">
-        <v>97.41601496878462</v>
+        <v>97.41601496878442</v>
       </c>
       <c r="M9" t="n">
-        <v>113.6798946519884</v>
+        <v>113.6798946519882</v>
       </c>
       <c r="N9" t="n">
-        <v>116.6886631983428</v>
+        <v>116.6886631983425</v>
       </c>
       <c r="O9" t="n">
-        <v>106.7473298457057</v>
+        <v>106.7473298457055</v>
       </c>
       <c r="P9" t="n">
-        <v>85.67414321201788</v>
+        <v>85.6741432120177</v>
       </c>
       <c r="Q9" t="n">
-        <v>57.27089586206459</v>
+        <v>57.27089586206448</v>
       </c>
       <c r="R9" t="n">
-        <v>27.85619852334341</v>
+        <v>27.85619852334336</v>
       </c>
       <c r="S9" t="n">
-        <v>8.333639498895113</v>
+        <v>8.333639498895096</v>
       </c>
       <c r="T9" t="n">
-        <v>1.808409610267913</v>
+        <v>1.808409610267909</v>
       </c>
       <c r="U9" t="n">
-        <v>0.02951702301851873</v>
+        <v>0.02951702301851867</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.3761404244764243</v>
+        <v>0.3761404244764235</v>
       </c>
       <c r="H10" t="n">
-        <v>3.344230319435848</v>
+        <v>3.34423031943584</v>
       </c>
       <c r="I10" t="n">
-        <v>11.31156840152738</v>
+        <v>11.31156840152736</v>
       </c>
       <c r="J10" t="n">
-        <v>26.59312801048319</v>
+        <v>26.59312801048314</v>
       </c>
       <c r="K10" t="n">
-        <v>43.70067840735183</v>
+        <v>43.70067840735175</v>
       </c>
       <c r="L10" t="n">
-        <v>55.92182274443131</v>
+        <v>55.9218227444312</v>
       </c>
       <c r="M10" t="n">
-        <v>58.96172126588166</v>
+        <v>58.96172126588154</v>
       </c>
       <c r="N10" t="n">
-        <v>57.55974332010595</v>
+        <v>57.55974332010583</v>
       </c>
       <c r="O10" t="n">
-        <v>53.16573927054043</v>
+        <v>53.16573927054032</v>
       </c>
       <c r="P10" t="n">
-        <v>45.49247461122133</v>
+        <v>45.49247461122124</v>
       </c>
       <c r="Q10" t="n">
-        <v>31.49663136229404</v>
+        <v>31.49663136229398</v>
       </c>
       <c r="R10" t="n">
-        <v>16.91264126782177</v>
+        <v>16.91264126782173</v>
       </c>
       <c r="S10" t="n">
-        <v>6.555101761102774</v>
+        <v>6.55510176110276</v>
       </c>
       <c r="T10" t="n">
-        <v>1.607145450035631</v>
+        <v>1.607145450035627</v>
       </c>
       <c r="U10" t="n">
-        <v>0.02051675042598681</v>
+        <v>0.02051675042598676</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -32461,7 +32461,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H20" t="n">
         <v>44.86703772844668</v>
@@ -32470,40 +32470,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J20" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K20" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L20" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M20" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N20" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O20" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P20" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q20" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R20" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S20" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T20" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U20" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,46 +32540,46 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H21" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I21" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J21" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K21" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L21" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M21" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N21" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O21" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P21" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q21" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R21" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S21" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T21" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U21" t="n">
         <v>0.1542136840462215</v>
@@ -32622,43 +32622,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H22" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I22" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J22" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K22" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L22" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M22" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N22" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O22" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P22" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q22" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R22" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S22" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T22" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U22" t="n">
         <v>0.1071911508780295</v>
@@ -33755,7 +33755,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q36" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R36" t="n">
         <v>145.5365940905541</v>
@@ -34366,7 +34366,7 @@
         <v>168.89895979748</v>
       </c>
       <c r="J44" t="n">
-        <v>371.8329054953988</v>
+        <v>371.8329054953992</v>
       </c>
       <c r="K44" t="n">
         <v>557.281137600381</v>
@@ -35483,25 +35483,25 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>5.501506679786033</v>
+        <v>0.6626904001544908</v>
       </c>
       <c r="J12" t="n">
-        <v>47.26567253469295</v>
+        <v>88.84260230761889</v>
       </c>
       <c r="K12" t="n">
-        <v>196.4669436195553</v>
+        <v>201.305759899187</v>
       </c>
       <c r="L12" t="n">
-        <v>261.5655694779741</v>
+        <v>303.1424992509</v>
       </c>
       <c r="M12" t="n">
         <v>324.7870744231162</v>
       </c>
       <c r="N12" t="n">
-        <v>389.5143384055029</v>
+        <v>347.937408632577</v>
       </c>
       <c r="O12" t="n">
-        <v>337.4274460070087</v>
+        <v>295.8505162340828</v>
       </c>
       <c r="P12" t="n">
         <v>259.4947019523377</v>
@@ -35510,7 +35510,7 @@
         <v>95.24882894802383</v>
       </c>
       <c r="R12" t="n">
-        <v>10.31209102851761</v>
+        <v>10.3120910285176</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>57.44456450360199</v>
+        <v>57.44456450360198</v>
       </c>
       <c r="K13" t="n">
         <v>198.8006478929242</v>
@@ -36036,16 +36036,16 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>1.332299818266826</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>109.6268955184478</v>
+        <v>11.94217529034289</v>
       </c>
       <c r="K19" t="n">
-        <v>99.30389319966704</v>
+        <v>185.7171940801523</v>
       </c>
       <c r="L19" t="n">
-        <v>254.9673908567486</v>
+        <v>157.2826706286437</v>
       </c>
       <c r="M19" t="n">
         <v>266.8084387121431</v>
@@ -36054,10 +36054,10 @@
         <v>270.7239495511832</v>
       </c>
       <c r="O19" t="n">
-        <v>139.3114638567573</v>
+        <v>236.9961840848622</v>
       </c>
       <c r="P19" t="n">
-        <v>185.0315088932871</v>
+        <v>197.6352280591742</v>
       </c>
       <c r="Q19" t="n">
         <v>110.7360003882471</v>
@@ -36118,31 +36118,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K20" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L20" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M20" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N20" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O20" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P20" t="n">
-        <v>398.7619862193719</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q20" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R20" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,25 +36197,25 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K21" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L21" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M21" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N21" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O21" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P21" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q21" t="n">
         <v>159.2338966127272</v>
@@ -36276,31 +36276,31 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>11.94217529034289</v>
+        <v>109.6268955184478</v>
       </c>
       <c r="K22" t="n">
         <v>196.988613427772</v>
       </c>
       <c r="L22" t="n">
-        <v>254.9673908567486</v>
+        <v>157.2826706286438</v>
       </c>
       <c r="M22" t="n">
-        <v>266.8084387121431</v>
+        <v>169.1237184840382</v>
       </c>
       <c r="N22" t="n">
-        <v>270.7239495511832</v>
+        <v>259.4525302035637</v>
       </c>
       <c r="O22" t="n">
         <v>236.9961840848623</v>
       </c>
       <c r="P22" t="n">
-        <v>99.95050783106933</v>
+        <v>197.6352280591743</v>
       </c>
       <c r="Q22" t="n">
-        <v>90.71201348256939</v>
+        <v>110.7360003882471</v>
       </c>
       <c r="R22" t="n">
-        <v>8.752567558057592</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -36370,7 +36370,7 @@
         <v>552.3018354129115</v>
       </c>
       <c r="O23" t="n">
-        <v>508.0530008882196</v>
+        <v>508.0530008882205</v>
       </c>
       <c r="P23" t="n">
         <v>398.7619862193719</v>
@@ -36510,13 +36510,13 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>1.332299818266826</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>109.6268955184478</v>
       </c>
       <c r="K25" t="n">
-        <v>196.988613427772</v>
+        <v>185.7171940801528</v>
       </c>
       <c r="L25" t="n">
         <v>254.9673908567486</v>
@@ -36528,16 +36528,16 @@
         <v>173.0392293230783</v>
       </c>
       <c r="O25" t="n">
-        <v>236.9961840848623</v>
+        <v>236.9961840848622</v>
       </c>
       <c r="P25" t="n">
-        <v>197.6352280591743</v>
+        <v>197.6352280591742</v>
       </c>
       <c r="Q25" t="n">
-        <v>89.37971366430239</v>
+        <v>110.7360003882471</v>
       </c>
       <c r="R25" t="n">
-        <v>8.752567558057592</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -36589,16 +36589,16 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>14.53086068225304</v>
+        <v>14.53086068225298</v>
       </c>
       <c r="J26" t="n">
-        <v>321.2893546727436</v>
+        <v>321.2893546727439</v>
       </c>
       <c r="K26" t="n">
-        <v>393.2990770105795</v>
+        <v>393.2990770105794</v>
       </c>
       <c r="L26" t="n">
-        <v>511.6979048475112</v>
+        <v>511.6979048475111</v>
       </c>
       <c r="M26" t="n">
         <v>595.0289062854057</v>
@@ -36613,10 +36613,10 @@
         <v>454.8697766745508</v>
       </c>
       <c r="Q26" t="n">
-        <v>306.9020952588985</v>
+        <v>306.9020952588984</v>
       </c>
       <c r="R26" t="n">
-        <v>115.7209889974038</v>
+        <v>115.7209889974037</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36750,22 +36750,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>101.6862070682452</v>
+        <v>68.04996574552183</v>
       </c>
       <c r="K28" t="n">
-        <v>262.1554499994986</v>
+        <v>262.1554499994985</v>
       </c>
       <c r="L28" t="n">
         <v>375.8651626253771</v>
       </c>
       <c r="M28" t="n">
-        <v>344.6322662856714</v>
+        <v>225.2315089392171</v>
       </c>
       <c r="N28" t="n">
-        <v>400.9647366227191</v>
+        <v>390.9600689260153</v>
       </c>
       <c r="O28" t="n">
-        <v>195.4192543119363</v>
+        <v>358.4609206778187</v>
       </c>
       <c r="P28" t="n">
         <v>291.0648616002894</v>
@@ -36826,16 +36826,16 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>14.53086068225304</v>
+        <v>14.53086068225298</v>
       </c>
       <c r="J29" t="n">
-        <v>246.8947914238915</v>
+        <v>321.2893546727439</v>
       </c>
       <c r="K29" t="n">
-        <v>393.2990770105795</v>
+        <v>393.2990770105794</v>
       </c>
       <c r="L29" t="n">
-        <v>511.6979048475112</v>
+        <v>511.6979048475111</v>
       </c>
       <c r="M29" t="n">
         <v>595.0289062854057</v>
@@ -36844,16 +36844,16 @@
         <v>608.4096258680904</v>
       </c>
       <c r="O29" t="n">
-        <v>564.1607913433982</v>
+        <v>564.160791343398</v>
       </c>
       <c r="P29" t="n">
-        <v>529.2643399234018</v>
+        <v>454.8697766745508</v>
       </c>
       <c r="Q29" t="n">
-        <v>306.9020952588985</v>
+        <v>306.9020952588984</v>
       </c>
       <c r="R29" t="n">
-        <v>115.7209889974038</v>
+        <v>115.7209889974037</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>68.04996574552186</v>
+        <v>68.04996574552183</v>
       </c>
       <c r="K31" t="n">
-        <v>262.1554499994986</v>
+        <v>155.411683654846</v>
       </c>
       <c r="L31" t="n">
-        <v>322.3573973332674</v>
+        <v>375.865162625377</v>
       </c>
       <c r="M31" t="n">
         <v>403.7411698486628</v>
       </c>
       <c r="N31" t="n">
-        <v>400.9647366227191</v>
+        <v>400.964736622719</v>
       </c>
       <c r="O31" t="n">
-        <v>358.4609206778188</v>
+        <v>342.033316794073</v>
       </c>
       <c r="P31" t="n">
-        <v>156.0582982862483</v>
+        <v>291.0648616002894</v>
       </c>
       <c r="Q31" t="n">
-        <v>134.5020289930726</v>
+        <v>69.15907061532113</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37063,10 +37063,10 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>14.53086068225309</v>
+        <v>14.53086068225301</v>
       </c>
       <c r="J32" t="n">
-        <v>321.2893546727427</v>
+        <v>246.8947914238915</v>
       </c>
       <c r="K32" t="n">
         <v>393.2990770105795</v>
@@ -37075,7 +37075,7 @@
         <v>511.6979048475112</v>
       </c>
       <c r="M32" t="n">
-        <v>595.0289062854058</v>
+        <v>595.0289062854057</v>
       </c>
       <c r="N32" t="n">
         <v>608.4096258680904</v>
@@ -37084,13 +37084,13 @@
         <v>564.1607913433982</v>
       </c>
       <c r="P32" t="n">
-        <v>454.8697766745509</v>
+        <v>529.2643399234023</v>
       </c>
       <c r="Q32" t="n">
-        <v>306.9020952588985</v>
+        <v>306.9020952588984</v>
       </c>
       <c r="R32" t="n">
-        <v>115.7209889974038</v>
+        <v>115.7209889974037</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37224,28 +37224,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>101.6862070682453</v>
+        <v>68.04996574552183</v>
       </c>
       <c r="K34" t="n">
-        <v>155.4116836548461</v>
+        <v>262.1554499994985</v>
       </c>
       <c r="L34" t="n">
         <v>375.8651626253771</v>
       </c>
       <c r="M34" t="n">
-        <v>403.7411698486629</v>
+        <v>403.7411698486628</v>
       </c>
       <c r="N34" t="n">
-        <v>400.9647366227191</v>
+        <v>400.964736622719</v>
       </c>
       <c r="O34" t="n">
-        <v>308.3970754713465</v>
+        <v>358.4609206778188</v>
       </c>
       <c r="P34" t="n">
-        <v>291.0648616002895</v>
+        <v>167.8934913718904</v>
       </c>
       <c r="Q34" t="n">
-        <v>69.15907061532124</v>
+        <v>69.15907061532116</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37403,7 +37403,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q36" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37473,19 +37473,19 @@
         <v>169.1237184840382</v>
       </c>
       <c r="N37" t="n">
-        <v>270.7239495511832</v>
+        <v>173.0392293230783</v>
       </c>
       <c r="O37" t="n">
-        <v>139.3114638567573</v>
+        <v>225.7247647372425</v>
       </c>
       <c r="P37" t="n">
-        <v>177.6112411534964</v>
+        <v>197.6352280591742</v>
       </c>
       <c r="Q37" t="n">
         <v>110.7360003882471</v>
       </c>
       <c r="R37" t="n">
-        <v>8.752567558057621</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -37704,25 +37704,25 @@
         <v>99.30389319966704</v>
       </c>
       <c r="L40" t="n">
-        <v>234.9434039510708</v>
+        <v>254.9673908567486</v>
       </c>
       <c r="M40" t="n">
-        <v>266.8084387121431</v>
+        <v>255.5370193645234</v>
       </c>
       <c r="N40" t="n">
         <v>270.7239495511832</v>
       </c>
       <c r="O40" t="n">
-        <v>139.3114638567573</v>
+        <v>236.9961840848622</v>
       </c>
       <c r="P40" t="n">
-        <v>197.6352280591743</v>
+        <v>99.95050783106933</v>
       </c>
       <c r="Q40" t="n">
         <v>110.7360003882471</v>
       </c>
       <c r="R40" t="n">
-        <v>8.752567558057621</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -37932,28 +37932,28 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>1.332299818266826</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>109.6268955184478</v>
       </c>
       <c r="K43" t="n">
-        <v>184.384894261885</v>
+        <v>185.7171940801524</v>
       </c>
       <c r="L43" t="n">
-        <v>254.9673908567486</v>
+        <v>157.2826706286437</v>
       </c>
       <c r="M43" t="n">
-        <v>266.8084387121431</v>
+        <v>169.1237184840382</v>
       </c>
       <c r="N43" t="n">
-        <v>173.0392293230783</v>
+        <v>270.7239495511832</v>
       </c>
       <c r="O43" t="n">
-        <v>139.3114638567573</v>
+        <v>236.9961840848622</v>
       </c>
       <c r="P43" t="n">
-        <v>197.6352280591743</v>
+        <v>197.6352280591742</v>
       </c>
       <c r="Q43" t="n">
         <v>110.7360003882471</v>
@@ -38014,7 +38014,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687129</v>
       </c>
       <c r="K44" t="n">
         <v>337.1912865554005</v>
@@ -38172,31 +38172,31 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>109.6268955184478</v>
+        <v>11.94217529034289</v>
       </c>
       <c r="K46" t="n">
         <v>196.988613427772</v>
       </c>
       <c r="L46" t="n">
-        <v>157.2826706286437</v>
+        <v>254.9673908567486</v>
       </c>
       <c r="M46" t="n">
         <v>266.8084387121431</v>
       </c>
       <c r="N46" t="n">
-        <v>250.6999626455055</v>
+        <v>270.7239495511832</v>
       </c>
       <c r="O46" t="n">
-        <v>139.3114638567573</v>
+        <v>236.9961840848622</v>
       </c>
       <c r="P46" t="n">
-        <v>197.6352280591743</v>
+        <v>186.3638087115544</v>
       </c>
       <c r="Q46" t="n">
-        <v>110.7360003882471</v>
+        <v>13.0512801601422</v>
       </c>
       <c r="R46" t="n">
-        <v>8.752567558057592</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
